--- a/data_formatted/formatted_wr.xlsx
+++ b/data_formatted/formatted_wr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="18740" windowHeight="21880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="20820" windowHeight="22840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="116">
+  <si>
+    <t>Britt, Kenny</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Knox, Johnny</t>
+  </si>
+  <si>
+    <t>Boldin, Anquan</t>
+  </si>
+  <si>
+    <t>Mason, Derrick</t>
+  </si>
+  <si>
+    <t>Thomas, Mike</t>
+  </si>
+  <si>
+    <t>Branch, Deion</t>
+  </si>
   <si>
     <t>End of 2011 Season</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,18 +361,43 @@
   </si>
   <si>
     <t>Fitzgerald, Larry</t>
+  </si>
+  <si>
+    <t>End of 2010 Season</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KC</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>Owens, Terrell</t>
+  </si>
+  <si>
+    <t>Manningham, Mario</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Moss, Santana</t>
+  </si>
+  <si>
+    <t>Edwards, Braylon</t>
+  </si>
+  <si>
+    <t>NYJ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -713,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:W62"/>
+  <dimension ref="A1:W93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -729,73 +775,73 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="O1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="P1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="R1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="S1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="U1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="V1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="W1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -803,16 +849,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F2">
         <v>2012</v>
@@ -850,16 +896,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F3">
         <v>2012</v>
@@ -900,16 +946,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F4">
         <v>2012</v>
@@ -953,16 +999,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F5">
         <v>2012</v>
@@ -1006,16 +1052,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F6">
         <v>2012</v>
@@ -1053,16 +1099,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F7">
         <v>2012</v>
@@ -1097,16 +1143,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F8">
         <v>2012</v>
@@ -1141,16 +1187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <v>2012</v>
@@ -1185,16 +1231,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C10">
         <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F10">
         <v>2012</v>
@@ -1235,16 +1281,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C11">
         <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F11">
         <v>2012</v>
@@ -1279,16 +1325,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F12">
         <v>2012</v>
@@ -1332,16 +1378,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F13">
         <v>2012</v>
@@ -1379,16 +1425,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C14">
         <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F14">
         <v>2012</v>
@@ -1423,16 +1469,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C15">
         <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F15">
         <v>2012</v>
@@ -1473,16 +1519,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C16">
         <v>125</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F16">
         <v>2012</v>
@@ -1526,16 +1572,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C17">
         <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F17">
         <v>2012</v>
@@ -1570,16 +1616,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C18">
         <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F18">
         <v>2012</v>
@@ -1623,16 +1669,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C19">
         <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F19">
         <v>2012</v>
@@ -1667,16 +1713,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C20">
         <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F20">
         <v>2012</v>
@@ -1720,16 +1766,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C21">
         <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F21">
         <v>2012</v>
@@ -1764,16 +1810,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C22">
         <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F22">
         <v>2012</v>
@@ -1811,16 +1857,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C23">
         <v>132</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F23">
         <v>2012</v>
@@ -1864,16 +1910,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C24">
         <v>133</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F24">
         <v>2012</v>
@@ -1914,16 +1960,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>134</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F25">
         <v>2012</v>
@@ -1964,16 +2010,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F26">
         <v>2012</v>
@@ -2017,16 +2063,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>136</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F27">
         <v>2012</v>
@@ -2064,16 +2110,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C28">
         <v>137</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F28">
         <v>2012</v>
@@ -2111,16 +2157,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C29">
         <v>138</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F29">
         <v>2012</v>
@@ -2161,16 +2207,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C30">
         <v>139</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F30">
         <v>2012</v>
@@ -2211,16 +2257,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C31">
         <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F31">
         <v>2012</v>
@@ -2252,73 +2298,73 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F32" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I32" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J32" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K32" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L32" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M32" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N32" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="O32" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="P32" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q32" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="R32" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="S32" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T32" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="U32" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="V32" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="W32" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2326,16 +2372,16 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C33">
         <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F33">
         <v>2011</v>
@@ -2367,7 +2413,7 @@
       <c r="P33">
         <v>16</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>1</v>
       </c>
       <c r="W33">
@@ -2379,16 +2425,16 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C34">
         <v>140</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F34">
         <v>2011</v>
@@ -2423,16 +2469,16 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C35">
         <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F35">
         <v>2011</v>
@@ -2473,16 +2519,16 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C36">
         <v>123</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F36">
         <v>2011</v>
@@ -2514,7 +2560,7 @@
       <c r="P36">
         <v>9</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>1</v>
       </c>
       <c r="W36">
@@ -2526,16 +2572,16 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C37">
         <v>141</v>
       </c>
       <c r="D37" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F37">
         <v>2011</v>
@@ -2570,16 +2616,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C38">
         <v>129</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F38">
         <v>2011</v>
@@ -2611,7 +2657,7 @@
       <c r="P38">
         <v>7</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>2</v>
       </c>
       <c r="W38">
@@ -2623,16 +2669,16 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <v>120</v>
       </c>
       <c r="D39" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F39">
         <v>2011</v>
@@ -2667,16 +2713,16 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C40">
         <v>142</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E40" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F40">
         <v>2011</v>
@@ -2711,7 +2757,7 @@
       <c r="P40">
         <v>6</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>2</v>
       </c>
       <c r="W40">
@@ -2723,16 +2769,16 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <v>135</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E41" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F41">
         <v>2011</v>
@@ -2764,7 +2810,7 @@
       <c r="P41">
         <v>8</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>1</v>
       </c>
       <c r="W41">
@@ -2776,16 +2822,16 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C42">
         <v>116</v>
       </c>
       <c r="D42" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F42">
         <v>2011</v>
@@ -2826,16 +2872,16 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C43">
         <v>143</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F43">
         <v>2011</v>
@@ -2870,16 +2916,16 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C44">
         <v>122</v>
       </c>
       <c r="D44" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E44" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F44">
         <v>2011</v>
@@ -2905,7 +2951,7 @@
       <c r="P44">
         <v>8</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>1</v>
       </c>
       <c r="W44">
@@ -2917,16 +2963,16 @@
         <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C45">
         <v>112</v>
       </c>
       <c r="D45" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E45" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F45">
         <v>2011</v>
@@ -2958,7 +3004,7 @@
       <c r="P45">
         <v>6</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>1</v>
       </c>
       <c r="W45">
@@ -2970,16 +3016,16 @@
         <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C46">
         <v>114</v>
       </c>
       <c r="D46" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E46" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F46">
         <v>2011</v>
@@ -3020,16 +3066,16 @@
         <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C47">
         <v>144</v>
       </c>
       <c r="D47" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F47">
         <v>2011</v>
@@ -3064,16 +3110,16 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C48">
         <v>145</v>
       </c>
       <c r="D48" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E48" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F48">
         <v>2011</v>
@@ -3117,16 +3163,16 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C49">
         <v>146</v>
       </c>
       <c r="D49" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E49" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F49">
         <v>2011</v>
@@ -3161,16 +3207,16 @@
         <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C50">
         <v>119</v>
       </c>
       <c r="D50" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F50">
         <v>2011</v>
@@ -3202,7 +3248,7 @@
       <c r="P50">
         <v>8</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>1</v>
       </c>
       <c r="W50">
@@ -3214,16 +3260,16 @@
         <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C51">
         <v>147</v>
       </c>
       <c r="D51" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E51" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F51">
         <v>2011</v>
@@ -3264,16 +3310,16 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C52">
         <v>113</v>
       </c>
       <c r="D52" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F52">
         <v>2011</v>
@@ -3305,7 +3351,7 @@
       <c r="P52">
         <v>9</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>1</v>
       </c>
       <c r="W52">
@@ -3317,16 +3363,16 @@
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C53">
         <v>131</v>
       </c>
       <c r="D53" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E53" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F53">
         <v>2011</v>
@@ -3361,16 +3407,16 @@
         <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C54">
         <v>133</v>
       </c>
       <c r="D54" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E54" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F54">
         <v>2011</v>
@@ -3411,16 +3457,16 @@
         <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C55">
         <v>148</v>
       </c>
       <c r="D55" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E55" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F55">
         <v>2011</v>
@@ -3452,7 +3498,7 @@
       <c r="P55">
         <v>6</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>2</v>
       </c>
       <c r="W55">
@@ -3464,16 +3510,16 @@
         <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C56">
         <v>149</v>
       </c>
       <c r="D56" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E56" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F56">
         <v>2011</v>
@@ -3514,16 +3560,16 @@
         <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C57">
         <v>150</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F57">
         <v>2011</v>
@@ -3558,16 +3604,16 @@
         <v>26</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C58">
         <v>151</v>
       </c>
       <c r="D58" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E58" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F58">
         <v>2011</v>
@@ -3593,7 +3639,7 @@
       <c r="P58">
         <v>5</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>1</v>
       </c>
       <c r="W58">
@@ -3605,16 +3651,16 @@
         <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C59">
         <v>152</v>
       </c>
       <c r="D59" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F59">
         <v>2011</v>
@@ -3646,7 +3692,7 @@
       <c r="P59">
         <v>4</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>1</v>
       </c>
       <c r="W59">
@@ -3658,16 +3704,16 @@
         <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C60">
         <v>125</v>
       </c>
       <c r="D60" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E60" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F60">
         <v>2011</v>
@@ -3702,16 +3748,16 @@
         <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C61">
         <v>153</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E61" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F61">
         <v>2011</v>
@@ -3737,7 +3783,7 @@
       <c r="P61">
         <v>4</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>1</v>
       </c>
       <c r="W61">
@@ -3749,16 +3795,16 @@
         <v>30</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C62">
         <v>154</v>
       </c>
       <c r="D62" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E62" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F62">
         <v>2011</v>
@@ -3788,10 +3834,1482 @@
         <v>115.6</v>
       </c>
     </row>
+    <row r="63" spans="1:23">
+      <c r="A63" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" t="s">
+        <v>81</v>
+      </c>
+      <c r="F63" t="s">
+        <v>82</v>
+      </c>
+      <c r="G63" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63" t="s">
+        <v>22</v>
+      </c>
+      <c r="K63" t="s">
+        <v>23</v>
+      </c>
+      <c r="L63" t="s">
+        <v>24</v>
+      </c>
+      <c r="M63" t="s">
+        <v>25</v>
+      </c>
+      <c r="N63" t="s">
+        <v>26</v>
+      </c>
+      <c r="O63" t="s">
+        <v>27</v>
+      </c>
+      <c r="P63" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>29</v>
+      </c>
+      <c r="R63" t="s">
+        <v>30</v>
+      </c>
+      <c r="S63" t="s">
+        <v>31</v>
+      </c>
+      <c r="T63" t="s">
+        <v>32</v>
+      </c>
+      <c r="U63" t="s">
+        <v>33</v>
+      </c>
+      <c r="V63" t="s">
+        <v>34</v>
+      </c>
+      <c r="W63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64">
+        <v>2010</v>
+      </c>
+      <c r="G64">
+        <v>123</v>
+      </c>
+      <c r="H64">
+        <v>99999</v>
+      </c>
+      <c r="I64">
+        <v>16</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>-18</v>
+      </c>
+      <c r="M64">
+        <v>153</v>
+      </c>
+      <c r="N64">
+        <v>77</v>
+      </c>
+      <c r="O64">
+        <v>1448</v>
+      </c>
+      <c r="P64">
+        <v>11</v>
+      </c>
+      <c r="W64">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" t="s">
+        <v>107</v>
+      </c>
+      <c r="F65">
+        <v>2010</v>
+      </c>
+      <c r="G65">
+        <v>20</v>
+      </c>
+      <c r="H65">
+        <v>15</v>
+      </c>
+      <c r="I65">
+        <v>16</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>4</v>
+      </c>
+      <c r="M65">
+        <v>133</v>
+      </c>
+      <c r="N65">
+        <v>72</v>
+      </c>
+      <c r="O65">
+        <v>1162</v>
+      </c>
+      <c r="P65">
+        <v>15</v>
+      </c>
+      <c r="W65">
+        <v>206.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" t="s">
+        <v>108</v>
+      </c>
+      <c r="F66">
+        <v>2010</v>
+      </c>
+      <c r="G66">
+        <v>11</v>
+      </c>
+      <c r="H66">
+        <v>8</v>
+      </c>
+      <c r="I66">
+        <v>16</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>-1</v>
+      </c>
+      <c r="M66">
+        <v>124</v>
+      </c>
+      <c r="N66">
+        <v>76</v>
+      </c>
+      <c r="O66">
+        <v>1265</v>
+      </c>
+      <c r="P66">
+        <v>12</v>
+      </c>
+      <c r="W66">
+        <v>198.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" t="s">
+        <v>53</v>
+      </c>
+      <c r="F67">
+        <v>2010</v>
+      </c>
+      <c r="G67">
+        <v>6</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="I67">
+        <v>16</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <v>179</v>
+      </c>
+      <c r="N67">
+        <v>115</v>
+      </c>
+      <c r="O67">
+        <v>1389</v>
+      </c>
+      <c r="P67">
+        <v>10</v>
+      </c>
+      <c r="V67">
+        <v>1</v>
+      </c>
+      <c r="W67">
+        <v>197.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68">
+        <v>2010</v>
+      </c>
+      <c r="G68">
+        <v>26</v>
+      </c>
+      <c r="H68">
+        <v>31</v>
+      </c>
+      <c r="I68">
+        <v>16</v>
+      </c>
+      <c r="J68">
+        <v>5</v>
+      </c>
+      <c r="K68">
+        <v>39</v>
+      </c>
+      <c r="M68">
+        <v>99</v>
+      </c>
+      <c r="N68">
+        <v>60</v>
+      </c>
+      <c r="O68">
+        <v>1257</v>
+      </c>
+      <c r="P68">
+        <v>10</v>
+      </c>
+      <c r="W68">
+        <v>189.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="A69">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69">
+        <v>2010</v>
+      </c>
+      <c r="G69">
+        <v>7</v>
+      </c>
+      <c r="H69">
+        <v>4</v>
+      </c>
+      <c r="I69">
+        <v>15</v>
+      </c>
+      <c r="J69">
+        <v>4</v>
+      </c>
+      <c r="K69">
+        <v>32</v>
+      </c>
+      <c r="M69">
+        <v>137</v>
+      </c>
+      <c r="N69">
+        <v>77</v>
+      </c>
+      <c r="O69">
+        <v>1120</v>
+      </c>
+      <c r="P69">
+        <v>12</v>
+      </c>
+      <c r="W69">
+        <v>187.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="A70">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>101</v>
+      </c>
+      <c r="D70" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" t="s">
+        <v>60</v>
+      </c>
+      <c r="F70">
+        <v>2010</v>
+      </c>
+      <c r="G70">
+        <v>24</v>
+      </c>
+      <c r="H70">
+        <v>17</v>
+      </c>
+      <c r="I70">
+        <v>13</v>
+      </c>
+      <c r="M70">
+        <v>128</v>
+      </c>
+      <c r="N70">
+        <v>79</v>
+      </c>
+      <c r="O70">
+        <v>1052</v>
+      </c>
+      <c r="P70">
+        <v>11</v>
+      </c>
+      <c r="W70">
+        <v>171.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" t="s">
+        <v>51</v>
+      </c>
+      <c r="F71">
+        <v>2010</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>13</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="K71">
+        <v>10</v>
+      </c>
+      <c r="M71">
+        <v>138</v>
+      </c>
+      <c r="N71">
+        <v>86</v>
+      </c>
+      <c r="O71">
+        <v>1216</v>
+      </c>
+      <c r="P71">
+        <v>8</v>
+      </c>
+      <c r="W71">
+        <v>170.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72">
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" t="s">
+        <v>64</v>
+      </c>
+      <c r="F72">
+        <v>2010</v>
+      </c>
+      <c r="G72">
+        <v>4</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72">
+        <v>16</v>
+      </c>
+      <c r="M72">
+        <v>176</v>
+      </c>
+      <c r="N72">
+        <v>111</v>
+      </c>
+      <c r="O72">
+        <v>1355</v>
+      </c>
+      <c r="P72">
+        <v>6</v>
+      </c>
+      <c r="V72">
+        <v>1</v>
+      </c>
+      <c r="W72">
+        <v>169.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
+      <c r="A73">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" t="s">
+        <v>73</v>
+      </c>
+      <c r="F73">
+        <v>2010</v>
+      </c>
+      <c r="G73">
+        <v>87</v>
+      </c>
+      <c r="H73">
+        <v>99999</v>
+      </c>
+      <c r="I73">
+        <v>16</v>
+      </c>
+      <c r="M73">
+        <v>142</v>
+      </c>
+      <c r="N73">
+        <v>82</v>
+      </c>
+      <c r="O73">
+        <v>1073</v>
+      </c>
+      <c r="P73">
+        <v>10</v>
+      </c>
+      <c r="V73">
+        <v>1</v>
+      </c>
+      <c r="W73">
+        <v>165.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="A74">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" t="s">
+        <v>42</v>
+      </c>
+      <c r="F74">
+        <v>2010</v>
+      </c>
+      <c r="G74">
+        <v>8</v>
+      </c>
+      <c r="H74">
+        <v>7</v>
+      </c>
+      <c r="I74">
+        <v>16</v>
+      </c>
+      <c r="J74">
+        <v>7</v>
+      </c>
+      <c r="K74">
+        <v>93</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>119</v>
+      </c>
+      <c r="N74">
+        <v>69</v>
+      </c>
+      <c r="O74">
+        <v>1041</v>
+      </c>
+      <c r="P74">
+        <v>7</v>
+      </c>
+      <c r="V74">
+        <v>1</v>
+      </c>
+      <c r="W74">
+        <v>159.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" t="s">
+        <v>109</v>
+      </c>
+      <c r="F75">
+        <v>2010</v>
+      </c>
+      <c r="G75">
+        <v>40</v>
+      </c>
+      <c r="H75">
+        <v>37</v>
+      </c>
+      <c r="I75">
+        <v>16</v>
+      </c>
+      <c r="M75">
+        <v>129</v>
+      </c>
+      <c r="N75">
+        <v>65</v>
+      </c>
+      <c r="O75">
+        <v>964</v>
+      </c>
+      <c r="P75">
+        <v>11</v>
+      </c>
+      <c r="V75">
+        <v>2</v>
+      </c>
+      <c r="W75">
+        <v>158.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="A76">
+        <v>13</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76">
+        <v>2010</v>
+      </c>
+      <c r="G76">
+        <v>23</v>
+      </c>
+      <c r="H76">
+        <v>24</v>
+      </c>
+      <c r="I76">
+        <v>16</v>
+      </c>
+      <c r="J76">
+        <v>3</v>
+      </c>
+      <c r="K76">
+        <v>36</v>
+      </c>
+      <c r="M76">
+        <v>115</v>
+      </c>
+      <c r="N76">
+        <v>70</v>
+      </c>
+      <c r="O76">
+        <v>964</v>
+      </c>
+      <c r="P76">
+        <v>10</v>
+      </c>
+      <c r="V76">
+        <v>1</v>
+      </c>
+      <c r="W76">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D77" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77">
+        <v>2010</v>
+      </c>
+      <c r="G77">
+        <v>9</v>
+      </c>
+      <c r="H77">
+        <v>10</v>
+      </c>
+      <c r="I77">
+        <v>14</v>
+      </c>
+      <c r="J77">
+        <v>16</v>
+      </c>
+      <c r="K77">
+        <v>104</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>96</v>
+      </c>
+      <c r="N77">
+        <v>47</v>
+      </c>
+      <c r="O77">
+        <v>1056</v>
+      </c>
+      <c r="P77">
+        <v>6</v>
+      </c>
+      <c r="V77">
+        <v>1</v>
+      </c>
+      <c r="W77">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78">
+        <v>15</v>
+      </c>
+      <c r="B78" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78">
+        <v>2010</v>
+      </c>
+      <c r="G78">
+        <v>33</v>
+      </c>
+      <c r="H78">
+        <v>27</v>
+      </c>
+      <c r="I78">
+        <v>14</v>
+      </c>
+      <c r="M78">
+        <v>139</v>
+      </c>
+      <c r="N78">
+        <v>72</v>
+      </c>
+      <c r="O78">
+        <v>983</v>
+      </c>
+      <c r="P78">
+        <v>9</v>
+      </c>
+      <c r="W78">
+        <v>152.30000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
+      <c r="A79">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>105</v>
+      </c>
+      <c r="D79" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79" t="s">
+        <v>104</v>
+      </c>
+      <c r="F79">
+        <v>2010</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
+      <c r="H79">
+        <v>9</v>
+      </c>
+      <c r="I79">
+        <v>16</v>
+      </c>
+      <c r="M79">
+        <v>173</v>
+      </c>
+      <c r="N79">
+        <v>90</v>
+      </c>
+      <c r="O79">
+        <v>1137</v>
+      </c>
+      <c r="P79">
+        <v>6</v>
+      </c>
+      <c r="W79">
+        <v>149.69999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="A80">
+        <v>17</v>
+      </c>
+      <c r="B80" t="s">
+        <v>111</v>
+      </c>
+      <c r="D80" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" t="s">
+        <v>60</v>
+      </c>
+      <c r="F80">
+        <v>2010</v>
+      </c>
+      <c r="G80">
+        <v>50</v>
+      </c>
+      <c r="H80">
+        <v>62</v>
+      </c>
+      <c r="I80">
+        <v>16</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>92</v>
+      </c>
+      <c r="N80">
+        <v>60</v>
+      </c>
+      <c r="O80">
+        <v>944</v>
+      </c>
+      <c r="P80">
+        <v>9</v>
+      </c>
+      <c r="V80">
+        <v>1</v>
+      </c>
+      <c r="W80">
+        <v>146.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
+      <c r="A81">
+        <v>18</v>
+      </c>
+      <c r="B81" t="s">
+        <v>57</v>
+      </c>
+      <c r="D81" t="s">
+        <v>37</v>
+      </c>
+      <c r="E81" t="s">
+        <v>112</v>
+      </c>
+      <c r="F81">
+        <v>2010</v>
+      </c>
+      <c r="G81">
+        <v>12</v>
+      </c>
+      <c r="H81">
+        <v>11</v>
+      </c>
+      <c r="I81">
+        <v>15</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>132</v>
+      </c>
+      <c r="N81">
+        <v>84</v>
+      </c>
+      <c r="O81">
+        <v>1023</v>
+      </c>
+      <c r="P81">
+        <v>7</v>
+      </c>
+      <c r="W81">
+        <v>144.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
+      <c r="A82">
+        <v>19</v>
+      </c>
+      <c r="B82" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82" t="s">
+        <v>88</v>
+      </c>
+      <c r="F82">
+        <v>2010</v>
+      </c>
+      <c r="G82">
+        <v>27</v>
+      </c>
+      <c r="H82">
+        <v>29</v>
+      </c>
+      <c r="I82">
+        <v>16</v>
+      </c>
+      <c r="J82">
+        <v>5</v>
+      </c>
+      <c r="K82">
+        <v>-6</v>
+      </c>
+      <c r="M82">
+        <v>145</v>
+      </c>
+      <c r="N82">
+        <v>93</v>
+      </c>
+      <c r="O82">
+        <v>1115</v>
+      </c>
+      <c r="P82">
+        <v>6</v>
+      </c>
+      <c r="V82">
+        <v>2</v>
+      </c>
+      <c r="W82">
+        <v>142.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
+      <c r="A83">
+        <v>20</v>
+      </c>
+      <c r="B83" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83" t="s">
+        <v>102</v>
+      </c>
+      <c r="F83">
+        <v>2010</v>
+      </c>
+      <c r="G83">
+        <v>22</v>
+      </c>
+      <c r="H83">
+        <v>20</v>
+      </c>
+      <c r="I83">
+        <v>14</v>
+      </c>
+      <c r="J83">
+        <v>18</v>
+      </c>
+      <c r="K83">
+        <v>107</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>109</v>
+      </c>
+      <c r="N83">
+        <v>71</v>
+      </c>
+      <c r="O83">
+        <v>868</v>
+      </c>
+      <c r="P83">
+        <v>5</v>
+      </c>
+      <c r="W83">
+        <v>133.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
+      <c r="A84">
+        <v>21</v>
+      </c>
+      <c r="B84" t="s">
+        <v>114</v>
+      </c>
+      <c r="D84" t="s">
+        <v>37</v>
+      </c>
+      <c r="E84" t="s">
+        <v>115</v>
+      </c>
+      <c r="F84">
+        <v>2010</v>
+      </c>
+      <c r="G84">
+        <v>28</v>
+      </c>
+      <c r="H84">
+        <v>43</v>
+      </c>
+      <c r="I84">
+        <v>16</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>4</v>
+      </c>
+      <c r="M84">
+        <v>101</v>
+      </c>
+      <c r="N84">
+        <v>53</v>
+      </c>
+      <c r="O84">
+        <v>904</v>
+      </c>
+      <c r="P84">
+        <v>7</v>
+      </c>
+      <c r="V84">
+        <v>1</v>
+      </c>
+      <c r="W84">
+        <v>130.80000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
+      <c r="A85">
+        <v>22</v>
+      </c>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>37</v>
+      </c>
+      <c r="E85" t="s">
+        <v>97</v>
+      </c>
+      <c r="F85">
+        <v>2010</v>
+      </c>
+      <c r="G85">
+        <v>46</v>
+      </c>
+      <c r="H85">
+        <v>44</v>
+      </c>
+      <c r="I85">
+        <v>12</v>
+      </c>
+      <c r="M85">
+        <v>73</v>
+      </c>
+      <c r="N85">
+        <v>42</v>
+      </c>
+      <c r="O85">
+        <v>775</v>
+      </c>
+      <c r="P85">
+        <v>9</v>
+      </c>
+      <c r="V85">
+        <v>1</v>
+      </c>
+      <c r="W85">
+        <v>129.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
+      <c r="A86">
+        <v>23</v>
+      </c>
+      <c r="B86" t="s">
+        <v>55</v>
+      </c>
+      <c r="D86" t="s">
+        <v>37</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>2010</v>
+      </c>
+      <c r="G86">
+        <v>19</v>
+      </c>
+      <c r="H86">
+        <v>21</v>
+      </c>
+      <c r="I86">
+        <v>15</v>
+      </c>
+      <c r="M86">
+        <v>123</v>
+      </c>
+      <c r="N86">
+        <v>86</v>
+      </c>
+      <c r="O86">
+        <v>848</v>
+      </c>
+      <c r="P86">
+        <v>7</v>
+      </c>
+      <c r="W86">
+        <v>126.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
+      <c r="A87">
+        <v>24</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" t="s">
+        <v>40</v>
+      </c>
+      <c r="F87">
+        <v>2010</v>
+      </c>
+      <c r="G87">
+        <v>37</v>
+      </c>
+      <c r="H87">
+        <v>30</v>
+      </c>
+      <c r="I87">
+        <v>16</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>100</v>
+      </c>
+      <c r="N87">
+        <v>51</v>
+      </c>
+      <c r="O87">
+        <v>960</v>
+      </c>
+      <c r="P87">
+        <v>5</v>
+      </c>
+      <c r="V87">
+        <v>1</v>
+      </c>
+      <c r="W87">
+        <v>124.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
+      <c r="A88">
+        <v>25</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" t="s">
+        <v>37</v>
+      </c>
+      <c r="E88" t="s">
+        <v>77</v>
+      </c>
+      <c r="F88">
+        <v>2010</v>
+      </c>
+      <c r="G88">
+        <v>14</v>
+      </c>
+      <c r="H88">
+        <v>14</v>
+      </c>
+      <c r="I88">
+        <v>16</v>
+      </c>
+      <c r="J88">
+        <v>2</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="M88">
+        <v>109</v>
+      </c>
+      <c r="N88">
+        <v>64</v>
+      </c>
+      <c r="O88">
+        <v>837</v>
+      </c>
+      <c r="P88">
+        <v>7</v>
+      </c>
+      <c r="V88">
+        <v>1</v>
+      </c>
+      <c r="W88">
+        <v>123.9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
+      <c r="A89">
+        <v>26</v>
+      </c>
+      <c r="B89" t="s">
+        <v>71</v>
+      </c>
+      <c r="D89" t="s">
+        <v>37</v>
+      </c>
+      <c r="E89" t="s">
+        <v>112</v>
+      </c>
+      <c r="F89">
+        <v>2010</v>
+      </c>
+      <c r="G89">
+        <v>68</v>
+      </c>
+      <c r="H89">
+        <v>64</v>
+      </c>
+      <c r="I89">
+        <v>16</v>
+      </c>
+      <c r="M89">
+        <v>95</v>
+      </c>
+      <c r="N89">
+        <v>66</v>
+      </c>
+      <c r="O89">
+        <v>763</v>
+      </c>
+      <c r="P89">
+        <v>8</v>
+      </c>
+      <c r="V89">
+        <v>1</v>
+      </c>
+      <c r="W89">
+        <v>122.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
+      <c r="A90">
+        <v>27</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>37</v>
+      </c>
+      <c r="E90" t="s">
+        <v>77</v>
+      </c>
+      <c r="F90">
+        <v>2010</v>
+      </c>
+      <c r="G90">
+        <v>35</v>
+      </c>
+      <c r="H90">
+        <v>35</v>
+      </c>
+      <c r="I90">
+        <v>16</v>
+      </c>
+      <c r="M90">
+        <v>100</v>
+      </c>
+      <c r="N90">
+        <v>61</v>
+      </c>
+      <c r="O90">
+        <v>802</v>
+      </c>
+      <c r="P90">
+        <v>7</v>
+      </c>
+      <c r="W90">
+        <v>122.2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
+      <c r="A91">
+        <v>28</v>
+      </c>
+      <c r="B91" t="s">
+        <v>39</v>
+      </c>
+      <c r="D91" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" t="s">
+        <v>100</v>
+      </c>
+      <c r="F91">
+        <v>2010</v>
+      </c>
+      <c r="G91">
+        <v>5</v>
+      </c>
+      <c r="H91">
+        <v>6</v>
+      </c>
+      <c r="I91">
+        <v>14</v>
+      </c>
+      <c r="J91">
+        <v>2</v>
+      </c>
+      <c r="K91">
+        <v>3</v>
+      </c>
+      <c r="M91">
+        <v>145</v>
+      </c>
+      <c r="N91">
+        <v>86</v>
+      </c>
+      <c r="O91">
+        <v>1014</v>
+      </c>
+      <c r="P91">
+        <v>3</v>
+      </c>
+      <c r="V91">
+        <v>1</v>
+      </c>
+      <c r="W91">
+        <v>117.7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
+      <c r="A92">
+        <v>29</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
+        <v>37</v>
+      </c>
+      <c r="E92" t="s">
+        <v>75</v>
+      </c>
+      <c r="F92">
+        <v>2010</v>
+      </c>
+      <c r="G92">
+        <v>78</v>
+      </c>
+      <c r="H92">
+        <v>70</v>
+      </c>
+      <c r="I92">
+        <v>16</v>
+      </c>
+      <c r="J92">
+        <v>12</v>
+      </c>
+      <c r="K92">
+        <v>114</v>
+      </c>
+      <c r="M92">
+        <v>101</v>
+      </c>
+      <c r="N92">
+        <v>66</v>
+      </c>
+      <c r="O92">
+        <v>820</v>
+      </c>
+      <c r="P92">
+        <v>4</v>
+      </c>
+      <c r="W92">
+        <v>117.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
+      <c r="A93">
+        <v>30</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s">
+        <v>37</v>
+      </c>
+      <c r="E93" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93">
+        <v>2010</v>
+      </c>
+      <c r="G93">
+        <v>101</v>
+      </c>
+      <c r="H93">
+        <v>99999</v>
+      </c>
+      <c r="I93">
+        <v>15</v>
+      </c>
+      <c r="M93">
+        <v>92</v>
+      </c>
+      <c r="N93">
+        <v>61</v>
+      </c>
+      <c r="O93">
+        <v>818</v>
+      </c>
+      <c r="P93">
+        <v>6</v>
+      </c>
+      <c r="V93">
+        <v>1</v>
+      </c>
+      <c r="W93">
+        <v>115.8</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/data_formatted/formatted_wr.xlsx
+++ b/data_formatted/formatted_wr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="20820" windowHeight="22840" tabRatio="500"/>
+    <workbookView xWindow="820" yWindow="-80" windowWidth="20820" windowHeight="22840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="152">
   <si>
     <t>Britt, Kenny</t>
   </si>
@@ -28,6 +28,117 @@
   </si>
   <si>
     <t>Knox, Johnny</t>
+  </si>
+  <si>
+    <t>End of 2009 Season</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moss, Randy</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Ochocinco, Chad</t>
+  </si>
+  <si>
+    <t>Holmes, Santonio</t>
+  </si>
+  <si>
+    <t>Ward, Hines</t>
+  </si>
+  <si>
+    <t>Driver, Donald</t>
+  </si>
+  <si>
+    <t>Meachem, Robert</t>
+  </si>
+  <si>
+    <t>Sims-Walker, Mike</t>
+  </si>
+  <si>
+    <t>Collie, Austin</t>
+  </si>
+  <si>
+    <t>Houshmandzadeh, T.J.</t>
+  </si>
+  <si>
+    <t>Cotchery, Jerricho</t>
+  </si>
+  <si>
+    <t>Evans, Lee</t>
+  </si>
+  <si>
+    <t>Chambers, Chris</t>
+  </si>
+  <si>
+    <t>Burleson, Nate</t>
+  </si>
+  <si>
+    <t>Breaston, Steve</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>STL</t>
+  </si>
+  <si>
+    <t>Berrian, Bernard</t>
+  </si>
+  <si>
+    <t>End of 2008 Season</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bryant, Antonio</t>
+  </si>
+  <si>
+    <t>Walter, Kevin</t>
+  </si>
+  <si>
+    <t>Royal, Eddie</t>
+  </si>
+  <si>
+    <t>Coles, Laveranues</t>
+  </si>
+  <si>
+    <t>Bruce, Isaac</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>Muhammad, Muhsin</t>
+  </si>
+  <si>
+    <t>Holt, Torry</t>
+  </si>
+  <si>
+    <t>Burress, Plaxico</t>
+  </si>
+  <si>
+    <t>End of 2007 Season</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Johnson, Chad</t>
+  </si>
+  <si>
+    <t>Engram, Bobby</t>
+  </si>
+  <si>
+    <t>Curtis, Kevin</t>
+  </si>
+  <si>
+    <t>Galloway, Joey</t>
+  </si>
+  <si>
+    <t>McDonald, Shaun</t>
+  </si>
+  <si>
+    <t>Williams, Reggie</t>
   </si>
   <si>
     <t>Boldin, Anquan</t>
@@ -398,6 +509,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -759,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:W93"/>
+  <dimension ref="A1:W186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -775,73 +892,73 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="K1" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="L1" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="M1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="N1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="O1" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="P1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="Q1" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="R1" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="S1" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="T1" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="U1" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="V1" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="W1" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -849,16 +966,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C2">
         <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F2">
         <v>2012</v>
@@ -896,16 +1013,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="F3">
         <v>2012</v>
@@ -946,16 +1063,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C4">
         <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F4">
         <v>2012</v>
@@ -999,16 +1116,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C5">
         <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="F5">
         <v>2012</v>
@@ -1052,16 +1169,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C6">
         <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F6">
         <v>2012</v>
@@ -1099,16 +1216,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C7">
         <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F7">
         <v>2012</v>
@@ -1143,16 +1260,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C8">
         <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F8">
         <v>2012</v>
@@ -1187,16 +1304,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C9">
         <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="F9">
         <v>2012</v>
@@ -1231,16 +1348,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C10">
         <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F10">
         <v>2012</v>
@@ -1281,16 +1398,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="C11">
         <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F11">
         <v>2012</v>
@@ -1325,16 +1442,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C12">
         <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="F12">
         <v>2012</v>
@@ -1378,16 +1495,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C13">
         <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="F13">
         <v>2012</v>
@@ -1425,16 +1542,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C14">
         <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="F14">
         <v>2012</v>
@@ -1469,16 +1586,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C15">
         <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="F15">
         <v>2012</v>
@@ -1519,16 +1636,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="C16">
         <v>125</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F16">
         <v>2012</v>
@@ -1572,16 +1689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="C17">
         <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="F17">
         <v>2012</v>
@@ -1616,16 +1733,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C18">
         <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="F18">
         <v>2012</v>
@@ -1669,16 +1786,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="C19">
         <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F19">
         <v>2012</v>
@@ -1713,16 +1830,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="C20">
         <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="F20">
         <v>2012</v>
@@ -1766,16 +1883,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="C21">
         <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="F21">
         <v>2012</v>
@@ -1810,16 +1927,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="C22">
         <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="F22">
         <v>2012</v>
@@ -1857,16 +1974,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="C23">
         <v>132</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="F23">
         <v>2012</v>
@@ -1910,16 +2027,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="C24">
         <v>133</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="F24">
         <v>2012</v>
@@ -1960,16 +2077,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C25">
         <v>134</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F25">
         <v>2012</v>
@@ -2010,16 +2127,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C26">
         <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="F26">
         <v>2012</v>
@@ -2063,16 +2180,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C27">
         <v>136</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F27">
         <v>2012</v>
@@ -2110,16 +2227,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C28">
         <v>137</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F28">
         <v>2012</v>
@@ -2157,16 +2274,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C29">
         <v>138</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="F29">
         <v>2012</v>
@@ -2207,16 +2324,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C30">
         <v>139</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F30">
         <v>2012</v>
@@ -2257,16 +2374,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C31">
         <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="F31">
         <v>2012</v>
@@ -2298,73 +2415,73 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="F32" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="H32" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J32" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="K32" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="L32" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="M32" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="N32" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="O32" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="P32" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="Q32" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="R32" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="S32" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="T32" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="U32" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="V32" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="W32" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2372,16 +2489,16 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C33">
         <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F33">
         <v>2011</v>
@@ -2425,16 +2542,16 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C34">
         <v>140</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="F34">
         <v>2011</v>
@@ -2469,16 +2586,16 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C35">
         <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="F35">
         <v>2011</v>
@@ -2519,16 +2636,16 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C36">
         <v>123</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="F36">
         <v>2011</v>
@@ -2572,16 +2689,16 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="C37">
         <v>141</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E37" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="F37">
         <v>2011</v>
@@ -2616,16 +2733,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="C38">
         <v>129</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E38" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="F38">
         <v>2011</v>
@@ -2669,16 +2786,16 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="C39">
         <v>120</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F39">
         <v>2011</v>
@@ -2713,16 +2830,16 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="C40">
         <v>142</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="F40">
         <v>2011</v>
@@ -2769,16 +2886,16 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C41">
         <v>135</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="F41">
         <v>2011</v>
@@ -2822,16 +2939,16 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C42">
         <v>116</v>
       </c>
       <c r="D42" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="F42">
         <v>2011</v>
@@ -2872,16 +2989,16 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="C43">
         <v>143</v>
       </c>
       <c r="D43" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E43" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="F43">
         <v>2011</v>
@@ -2916,16 +3033,16 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C44">
         <v>122</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="F44">
         <v>2011</v>
@@ -2963,16 +3080,16 @@
         <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C45">
         <v>112</v>
       </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E45" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="F45">
         <v>2011</v>
@@ -3016,16 +3133,16 @@
         <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C46">
         <v>114</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="F46">
         <v>2011</v>
@@ -3066,16 +3183,16 @@
         <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="C47">
         <v>144</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E47" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F47">
         <v>2011</v>
@@ -3110,16 +3227,16 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="C48">
         <v>145</v>
       </c>
       <c r="D48" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E48" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="F48">
         <v>2011</v>
@@ -3163,16 +3280,16 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="C49">
         <v>146</v>
       </c>
       <c r="D49" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E49" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="F49">
         <v>2011</v>
@@ -3207,16 +3324,16 @@
         <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C50">
         <v>119</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E50" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F50">
         <v>2011</v>
@@ -3260,16 +3377,16 @@
         <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="C51">
         <v>147</v>
       </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E51" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="F51">
         <v>2011</v>
@@ -3310,16 +3427,16 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C52">
         <v>113</v>
       </c>
       <c r="D52" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F52">
         <v>2011</v>
@@ -3363,16 +3480,16 @@
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="C53">
         <v>131</v>
       </c>
       <c r="D53" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E53" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="F53">
         <v>2011</v>
@@ -3407,16 +3524,16 @@
         <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="C54">
         <v>133</v>
       </c>
       <c r="D54" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E54" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="F54">
         <v>2011</v>
@@ -3457,16 +3574,16 @@
         <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="C55">
         <v>148</v>
       </c>
       <c r="D55" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E55" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F55">
         <v>2011</v>
@@ -3510,16 +3627,16 @@
         <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="C56">
         <v>149</v>
       </c>
       <c r="D56" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="F56">
         <v>2011</v>
@@ -3560,16 +3677,16 @@
         <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="C57">
         <v>150</v>
       </c>
       <c r="D57" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E57" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F57">
         <v>2011</v>
@@ -3604,16 +3721,16 @@
         <v>26</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="C58">
         <v>151</v>
       </c>
       <c r="D58" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E58" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="F58">
         <v>2011</v>
@@ -3651,16 +3768,16 @@
         <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C59">
         <v>152</v>
       </c>
       <c r="D59" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F59">
         <v>2011</v>
@@ -3704,16 +3821,16 @@
         <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="C60">
         <v>125</v>
       </c>
       <c r="D60" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E60" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F60">
         <v>2011</v>
@@ -3748,16 +3865,16 @@
         <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C61">
         <v>153</v>
       </c>
       <c r="D61" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E61" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="F61">
         <v>2011</v>
@@ -3795,16 +3912,16 @@
         <v>30</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C62">
         <v>154</v>
       </c>
       <c r="D62" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E62" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="F62">
         <v>2011</v>
@@ -3836,73 +3953,73 @@
     </row>
     <row r="63" spans="1:23">
       <c r="A63" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C63" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="D63" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E63" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="F63" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="G63" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="H63" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="I63" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J63" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="K63" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="L63" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="M63" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="N63" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="O63" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="P63" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="Q63" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="R63" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="S63" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="T63" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="U63" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="V63" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="W63" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -3910,13 +4027,13 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="D64" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E64" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F64">
         <v>2010</v>
@@ -3957,13 +4074,13 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="D65" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E65" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="F65">
         <v>2010</v>
@@ -4004,13 +4121,13 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="D66" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E66" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="F66">
         <v>2010</v>
@@ -4051,13 +4168,13 @@
         <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="D67" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E67" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F67">
         <v>2010</v>
@@ -4101,13 +4218,13 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D68" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="F68">
         <v>2010</v>
@@ -4148,13 +4265,13 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D69" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F69">
         <v>2010</v>
@@ -4195,13 +4312,13 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="D70" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="F70">
         <v>2010</v>
@@ -4236,13 +4353,13 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="D71" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E71" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="F71">
         <v>2010</v>
@@ -4283,13 +4400,13 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D72" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E72" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F72">
         <v>2010</v>
@@ -4327,13 +4444,13 @@
         <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="D73" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E73" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="F73">
         <v>2010</v>
@@ -4371,13 +4488,13 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D74" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F74">
         <v>2010</v>
@@ -4424,13 +4541,13 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="D75" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E75" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="F75">
         <v>2010</v>
@@ -4468,13 +4585,13 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D76" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E76" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F76">
         <v>2010</v>
@@ -4518,13 +4635,13 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="D77" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E77" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F77">
         <v>2010</v>
@@ -4571,13 +4688,13 @@
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="D78" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="F78">
         <v>2010</v>
@@ -4612,13 +4729,13 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="D79" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E79" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="F79">
         <v>2010</v>
@@ -4653,13 +4770,13 @@
         <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="D80" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E80" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="F80">
         <v>2010</v>
@@ -4703,13 +4820,13 @@
         <v>18</v>
       </c>
       <c r="B81" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="D81" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E81" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="F81">
         <v>2010</v>
@@ -4750,13 +4867,13 @@
         <v>19</v>
       </c>
       <c r="B82" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="D82" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E82" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="F82">
         <v>2010</v>
@@ -4800,13 +4917,13 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="D83" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E83" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="F83">
         <v>2010</v>
@@ -4850,13 +4967,13 @@
         <v>21</v>
       </c>
       <c r="B84" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="D84" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E84" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="F84">
         <v>2010</v>
@@ -4903,10 +5020,10 @@
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E85" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="F85">
         <v>2010</v>
@@ -4944,10 +5061,10 @@
         <v>23</v>
       </c>
       <c r="B86" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="D86" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E86" t="s">
         <v>1</v>
@@ -4988,10 +5105,10 @@
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E87" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="F87">
         <v>2010</v>
@@ -5035,13 +5152,13 @@
         <v>25</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D88" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E88" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="F88">
         <v>2010</v>
@@ -5085,13 +5202,13 @@
         <v>26</v>
       </c>
       <c r="B89" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="D89" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E89" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="F89">
         <v>2010</v>
@@ -5129,13 +5246,13 @@
         <v>27</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D90" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E90" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="F90">
         <v>2010</v>
@@ -5170,13 +5287,13 @@
         <v>28</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D91" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E91" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="F91">
         <v>2010</v>
@@ -5220,13 +5337,13 @@
         <v>29</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D92" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E92" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="F92">
         <v>2010</v>
@@ -5267,13 +5384,13 @@
         <v>30</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D93" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E93" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F93">
         <v>2010</v>
@@ -5304,12 +5421,4756 @@
       </c>
       <c r="W93">
         <v>115.8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
+        <v>115</v>
+      </c>
+      <c r="C94" t="s">
+        <v>114</v>
+      </c>
+      <c r="D94" t="s">
+        <v>116</v>
+      </c>
+      <c r="E94" t="s">
+        <v>117</v>
+      </c>
+      <c r="F94" t="s">
+        <v>118</v>
+      </c>
+      <c r="G94" t="s">
+        <v>54</v>
+      </c>
+      <c r="H94" t="s">
+        <v>55</v>
+      </c>
+      <c r="I94" t="s">
+        <v>57</v>
+      </c>
+      <c r="J94" t="s">
+        <v>58</v>
+      </c>
+      <c r="K94" t="s">
+        <v>59</v>
+      </c>
+      <c r="L94" t="s">
+        <v>60</v>
+      </c>
+      <c r="M94" t="s">
+        <v>61</v>
+      </c>
+      <c r="N94" t="s">
+        <v>62</v>
+      </c>
+      <c r="O94" t="s">
+        <v>63</v>
+      </c>
+      <c r="P94" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>65</v>
+      </c>
+      <c r="R94" t="s">
+        <v>66</v>
+      </c>
+      <c r="S94" t="s">
+        <v>67</v>
+      </c>
+      <c r="T94" t="s">
+        <v>68</v>
+      </c>
+      <c r="U94" t="s">
+        <v>69</v>
+      </c>
+      <c r="V94" t="s">
+        <v>70</v>
+      </c>
+      <c r="W94" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>86</v>
+      </c>
+      <c r="D95" t="s">
+        <v>73</v>
+      </c>
+      <c r="E95" t="s">
+        <v>87</v>
+      </c>
+      <c r="F95">
+        <v>2009</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="H95">
+        <v>2</v>
+      </c>
+      <c r="I95">
+        <v>16</v>
+      </c>
+      <c r="J95">
+        <v>2</v>
+      </c>
+      <c r="K95">
+        <v>10</v>
+      </c>
+      <c r="M95">
+        <v>171</v>
+      </c>
+      <c r="N95">
+        <v>101</v>
+      </c>
+      <c r="O95">
+        <v>1569</v>
+      </c>
+      <c r="P95">
+        <v>9</v>
+      </c>
+      <c r="W95">
+        <v>211.9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
+      <c r="A96">
+        <v>2</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s">
+        <v>73</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>2009</v>
+      </c>
+      <c r="G96">
+        <v>4</v>
+      </c>
+      <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96">
+        <v>16</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>138</v>
+      </c>
+      <c r="N96">
+        <v>83</v>
+      </c>
+      <c r="O96">
+        <v>1264</v>
+      </c>
+      <c r="P96">
+        <v>13</v>
+      </c>
+      <c r="U96">
+        <v>1</v>
+      </c>
+      <c r="W96">
+        <v>202.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23">
+      <c r="A97">
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
+        <v>47</v>
+      </c>
+      <c r="D97" t="s">
+        <v>73</v>
+      </c>
+      <c r="E97" t="s">
+        <v>78</v>
+      </c>
+      <c r="F97">
+        <v>2009</v>
+      </c>
+      <c r="G97">
+        <v>99999</v>
+      </c>
+      <c r="H97">
+        <v>99999</v>
+      </c>
+      <c r="I97">
+        <v>16</v>
+      </c>
+      <c r="J97">
+        <v>2</v>
+      </c>
+      <c r="K97">
+        <v>-2</v>
+      </c>
+      <c r="M97">
+        <v>124</v>
+      </c>
+      <c r="N97">
+        <v>81</v>
+      </c>
+      <c r="O97">
+        <v>1320</v>
+      </c>
+      <c r="P97">
+        <v>11</v>
+      </c>
+      <c r="W97">
+        <v>197.8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23">
+      <c r="A98">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>123</v>
+      </c>
+      <c r="D98" t="s">
+        <v>73</v>
+      </c>
+      <c r="E98" t="s">
+        <v>49</v>
+      </c>
+      <c r="F98">
+        <v>2009</v>
+      </c>
+      <c r="G98">
+        <v>22</v>
+      </c>
+      <c r="H98">
+        <v>17</v>
+      </c>
+      <c r="I98">
+        <v>15</v>
+      </c>
+      <c r="J98">
+        <v>11</v>
+      </c>
+      <c r="K98">
+        <v>137</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>117</v>
+      </c>
+      <c r="N98">
+        <v>62</v>
+      </c>
+      <c r="O98">
+        <v>1156</v>
+      </c>
+      <c r="P98">
+        <v>9</v>
+      </c>
+      <c r="U98">
+        <v>1</v>
+      </c>
+      <c r="W98">
+        <v>187.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23">
+      <c r="A99">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>141</v>
+      </c>
+      <c r="D99" t="s">
+        <v>73</v>
+      </c>
+      <c r="E99" t="s">
+        <v>140</v>
+      </c>
+      <c r="F99">
+        <v>2009</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>16</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>153</v>
+      </c>
+      <c r="N99">
+        <v>97</v>
+      </c>
+      <c r="O99">
+        <v>1092</v>
+      </c>
+      <c r="P99">
+        <v>13</v>
+      </c>
+      <c r="W99">
+        <v>187.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23">
+      <c r="A100">
+        <v>6</v>
+      </c>
+      <c r="B100" t="s">
+        <v>99</v>
+      </c>
+      <c r="D100" t="s">
+        <v>73</v>
+      </c>
+      <c r="E100" t="s">
+        <v>100</v>
+      </c>
+      <c r="F100">
+        <v>2009</v>
+      </c>
+      <c r="G100">
+        <v>7</v>
+      </c>
+      <c r="H100">
+        <v>10</v>
+      </c>
+      <c r="I100">
+        <v>16</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>149</v>
+      </c>
+      <c r="N100">
+        <v>100</v>
+      </c>
+      <c r="O100">
+        <v>1264</v>
+      </c>
+      <c r="P100">
+        <v>10</v>
+      </c>
+      <c r="V100">
+        <v>1</v>
+      </c>
+      <c r="W100">
+        <v>184.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23">
+      <c r="A101">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>90</v>
+      </c>
+      <c r="D101" t="s">
+        <v>73</v>
+      </c>
+      <c r="E101" t="s">
+        <v>89</v>
+      </c>
+      <c r="F101">
+        <v>2009</v>
+      </c>
+      <c r="G101">
+        <v>8</v>
+      </c>
+      <c r="H101">
+        <v>8</v>
+      </c>
+      <c r="I101">
+        <v>16</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="M101">
+        <v>164</v>
+      </c>
+      <c r="N101">
+        <v>85</v>
+      </c>
+      <c r="O101">
+        <v>1153</v>
+      </c>
+      <c r="P101">
+        <v>11</v>
+      </c>
+      <c r="W101">
+        <v>181.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23">
+      <c r="A102">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>51</v>
+      </c>
+      <c r="D102" t="s">
+        <v>73</v>
+      </c>
+      <c r="E102" t="s">
+        <v>138</v>
+      </c>
+      <c r="F102">
+        <v>2009</v>
+      </c>
+      <c r="G102">
+        <v>53</v>
+      </c>
+      <c r="H102">
+        <v>67</v>
+      </c>
+      <c r="I102">
+        <v>16</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>121</v>
+      </c>
+      <c r="N102">
+        <v>83</v>
+      </c>
+      <c r="O102">
+        <v>1312</v>
+      </c>
+      <c r="P102">
+        <v>8</v>
+      </c>
+      <c r="U102">
+        <v>1</v>
+      </c>
+      <c r="W102">
+        <v>177.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23">
+      <c r="A103">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>75</v>
+      </c>
+      <c r="D103" t="s">
+        <v>73</v>
+      </c>
+      <c r="E103" t="s">
+        <v>82</v>
+      </c>
+      <c r="F103">
+        <v>2009</v>
+      </c>
+      <c r="G103">
+        <v>13</v>
+      </c>
+      <c r="H103">
+        <v>21</v>
+      </c>
+      <c r="I103">
+        <v>15</v>
+      </c>
+      <c r="J103">
+        <v>7</v>
+      </c>
+      <c r="K103">
+        <v>39</v>
+      </c>
+      <c r="M103">
+        <v>154</v>
+      </c>
+      <c r="N103">
+        <v>101</v>
+      </c>
+      <c r="O103">
+        <v>1120</v>
+      </c>
+      <c r="P103">
+        <v>10</v>
+      </c>
+      <c r="W103">
+        <v>175.9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23">
+      <c r="A104">
+        <v>10</v>
+      </c>
+      <c r="B104" t="s">
+        <v>83</v>
+      </c>
+      <c r="D104" t="s">
+        <v>73</v>
+      </c>
+      <c r="E104" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104">
+        <v>2009</v>
+      </c>
+      <c r="G104">
+        <v>18</v>
+      </c>
+      <c r="H104">
+        <v>15</v>
+      </c>
+      <c r="I104">
+        <v>15</v>
+      </c>
+      <c r="J104">
+        <v>3</v>
+      </c>
+      <c r="K104">
+        <v>11</v>
+      </c>
+      <c r="M104">
+        <v>107</v>
+      </c>
+      <c r="N104">
+        <v>68</v>
+      </c>
+      <c r="O104">
+        <v>1167</v>
+      </c>
+      <c r="P104">
+        <v>9</v>
+      </c>
+      <c r="W104">
+        <v>171.8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23">
+      <c r="A105">
+        <v>11</v>
+      </c>
+      <c r="B105" t="s">
+        <v>105</v>
+      </c>
+      <c r="D105" t="s">
+        <v>73</v>
+      </c>
+      <c r="E105" t="s">
+        <v>96</v>
+      </c>
+      <c r="F105">
+        <v>2009</v>
+      </c>
+      <c r="G105">
+        <v>61</v>
+      </c>
+      <c r="H105">
+        <v>57</v>
+      </c>
+      <c r="I105">
+        <v>16</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>157</v>
+      </c>
+      <c r="N105">
+        <v>107</v>
+      </c>
+      <c r="O105">
+        <v>1220</v>
+      </c>
+      <c r="P105">
+        <v>7</v>
+      </c>
+      <c r="W105">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23">
+      <c r="A106">
+        <v>12</v>
+      </c>
+      <c r="B106" t="s">
+        <v>91</v>
+      </c>
+      <c r="D106" t="s">
+        <v>73</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>2009</v>
+      </c>
+      <c r="G106">
+        <v>14</v>
+      </c>
+      <c r="H106">
+        <v>12</v>
+      </c>
+      <c r="I106">
+        <v>14</v>
+      </c>
+      <c r="J106">
+        <v>5</v>
+      </c>
+      <c r="K106">
+        <v>36</v>
+      </c>
+      <c r="M106">
+        <v>162</v>
+      </c>
+      <c r="N106">
+        <v>123</v>
+      </c>
+      <c r="O106">
+        <v>1348</v>
+      </c>
+      <c r="P106">
+        <v>4</v>
+      </c>
+      <c r="W106">
+        <v>162.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23">
+      <c r="A107">
+        <v>13</v>
+      </c>
+      <c r="B107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D107" t="s">
+        <v>73</v>
+      </c>
+      <c r="E107" t="s">
+        <v>148</v>
+      </c>
+      <c r="F107">
+        <v>2009</v>
+      </c>
+      <c r="G107">
+        <v>12</v>
+      </c>
+      <c r="H107">
+        <v>9</v>
+      </c>
+      <c r="I107">
+        <v>16</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>6</v>
+      </c>
+      <c r="M107">
+        <v>106</v>
+      </c>
+      <c r="N107">
+        <v>70</v>
+      </c>
+      <c r="O107">
+        <v>1074</v>
+      </c>
+      <c r="P107">
+        <v>9</v>
+      </c>
+      <c r="U107">
+        <v>2</v>
+      </c>
+      <c r="W107">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23">
+      <c r="A108">
+        <v>14</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" t="s">
+        <v>73</v>
+      </c>
+      <c r="E108" t="s">
+        <v>80</v>
+      </c>
+      <c r="F108">
+        <v>2009</v>
+      </c>
+      <c r="G108">
+        <v>19</v>
+      </c>
+      <c r="H108">
+        <v>20</v>
+      </c>
+      <c r="I108">
+        <v>16</v>
+      </c>
+      <c r="J108">
+        <v>3</v>
+      </c>
+      <c r="K108">
+        <v>32</v>
+      </c>
+      <c r="M108">
+        <v>128</v>
+      </c>
+      <c r="N108">
+        <v>72</v>
+      </c>
+      <c r="O108">
+        <v>1047</v>
+      </c>
+      <c r="P108">
+        <v>9</v>
+      </c>
+      <c r="U108">
+        <v>2</v>
+      </c>
+      <c r="W108">
+        <v>157.9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23">
+      <c r="A109">
+        <v>15</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" t="s">
+        <v>73</v>
+      </c>
+      <c r="E109" t="s">
+        <v>46</v>
+      </c>
+      <c r="F109">
+        <v>2009</v>
+      </c>
+      <c r="G109">
+        <v>27</v>
+      </c>
+      <c r="H109">
+        <v>22</v>
+      </c>
+      <c r="I109">
+        <v>16</v>
+      </c>
+      <c r="J109">
+        <v>3</v>
+      </c>
+      <c r="K109">
+        <v>6</v>
+      </c>
+      <c r="M109">
+        <v>138</v>
+      </c>
+      <c r="N109">
+        <v>79</v>
+      </c>
+      <c r="O109">
+        <v>1248</v>
+      </c>
+      <c r="P109">
+        <v>5</v>
+      </c>
+      <c r="V109">
+        <v>1</v>
+      </c>
+      <c r="W109">
+        <v>153.4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23">
+      <c r="A110">
+        <v>16</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" t="s">
+        <v>73</v>
+      </c>
+      <c r="E110" t="s">
+        <v>46</v>
+      </c>
+      <c r="F110">
+        <v>2009</v>
+      </c>
+      <c r="G110">
+        <v>23</v>
+      </c>
+      <c r="H110">
+        <v>25</v>
+      </c>
+      <c r="I110">
+        <v>16</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>136</v>
+      </c>
+      <c r="N110">
+        <v>95</v>
+      </c>
+      <c r="O110">
+        <v>1167</v>
+      </c>
+      <c r="P110">
+        <v>6</v>
+      </c>
+      <c r="U110">
+        <v>1</v>
+      </c>
+      <c r="W110">
+        <v>150.69999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23">
+      <c r="A111">
+        <v>17</v>
+      </c>
+      <c r="B111" t="s">
+        <v>40</v>
+      </c>
+      <c r="D111" t="s">
+        <v>73</v>
+      </c>
+      <c r="E111" t="s">
+        <v>113</v>
+      </c>
+      <c r="F111">
+        <v>2009</v>
+      </c>
+      <c r="G111">
+        <v>36</v>
+      </c>
+      <c r="H111">
+        <v>34</v>
+      </c>
+      <c r="I111">
+        <v>16</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>134</v>
+      </c>
+      <c r="N111">
+        <v>73</v>
+      </c>
+      <c r="O111">
+        <v>1028</v>
+      </c>
+      <c r="P111">
+        <v>7</v>
+      </c>
+      <c r="W111">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23">
+      <c r="A112">
+        <v>18</v>
+      </c>
+      <c r="B112" t="s">
+        <v>105</v>
+      </c>
+      <c r="D112" t="s">
+        <v>73</v>
+      </c>
+      <c r="E112" t="s">
+        <v>106</v>
+      </c>
+      <c r="F112">
+        <v>2009</v>
+      </c>
+      <c r="G112">
+        <v>5</v>
+      </c>
+      <c r="H112">
+        <v>5</v>
+      </c>
+      <c r="I112">
+        <v>15</v>
+      </c>
+      <c r="J112">
+        <v>5</v>
+      </c>
+      <c r="K112">
+        <v>22</v>
+      </c>
+      <c r="M112">
+        <v>128</v>
+      </c>
+      <c r="N112">
+        <v>65</v>
+      </c>
+      <c r="O112">
+        <v>982</v>
+      </c>
+      <c r="P112">
+        <v>7</v>
+      </c>
+      <c r="W112">
+        <v>142.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23">
+      <c r="A113">
+        <v>19</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" t="s">
+        <v>73</v>
+      </c>
+      <c r="E113" t="s">
+        <v>144</v>
+      </c>
+      <c r="F113">
+        <v>2009</v>
+      </c>
+      <c r="G113">
+        <v>31</v>
+      </c>
+      <c r="H113">
+        <v>35</v>
+      </c>
+      <c r="I113">
+        <v>16</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>13</v>
+      </c>
+      <c r="M113">
+        <v>112</v>
+      </c>
+      <c r="N113">
+        <v>70</v>
+      </c>
+      <c r="O113">
+        <v>1061</v>
+      </c>
+      <c r="P113">
+        <v>6</v>
+      </c>
+      <c r="U113">
+        <v>1</v>
+      </c>
+      <c r="W113">
+        <v>141.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23">
+      <c r="A114">
+        <v>20</v>
+      </c>
+      <c r="B114" t="s">
+        <v>132</v>
+      </c>
+      <c r="D114" t="s">
+        <v>73</v>
+      </c>
+      <c r="E114" t="s">
+        <v>144</v>
+      </c>
+      <c r="F114">
+        <v>2009</v>
+      </c>
+      <c r="G114">
+        <v>5</v>
+      </c>
+      <c r="H114">
+        <v>6</v>
+      </c>
+      <c r="I114">
+        <v>16</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>118</v>
+      </c>
+      <c r="N114">
+        <v>68</v>
+      </c>
+      <c r="O114">
+        <v>1113</v>
+      </c>
+      <c r="P114">
+        <v>4</v>
+      </c>
+      <c r="W114">
+        <v>135.30000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23">
+      <c r="A115">
+        <v>21</v>
+      </c>
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" t="s">
+        <v>73</v>
+      </c>
+      <c r="E115" t="s">
+        <v>148</v>
+      </c>
+      <c r="F115">
+        <v>2009</v>
+      </c>
+      <c r="G115">
+        <v>65</v>
+      </c>
+      <c r="H115">
+        <v>72</v>
+      </c>
+      <c r="I115">
+        <v>16</v>
+      </c>
+      <c r="J115">
+        <v>6</v>
+      </c>
+      <c r="K115">
+        <v>82</v>
+      </c>
+      <c r="M115">
+        <v>64</v>
+      </c>
+      <c r="N115">
+        <v>45</v>
+      </c>
+      <c r="O115">
+        <v>722</v>
+      </c>
+      <c r="P115">
+        <v>9</v>
+      </c>
+      <c r="U115">
+        <v>1</v>
+      </c>
+      <c r="W115">
+        <v>132.4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23">
+      <c r="A116">
+        <v>22</v>
+      </c>
+      <c r="B116" t="s">
+        <v>72</v>
+      </c>
+      <c r="D116" t="s">
+        <v>73</v>
+      </c>
+      <c r="E116" t="s">
+        <v>74</v>
+      </c>
+      <c r="F116">
+        <v>2009</v>
+      </c>
+      <c r="G116">
+        <v>3</v>
+      </c>
+      <c r="H116">
+        <v>4</v>
+      </c>
+      <c r="I116">
+        <v>14</v>
+      </c>
+      <c r="J116">
+        <v>7</v>
+      </c>
+      <c r="K116">
+        <v>73</v>
+      </c>
+      <c r="M116">
+        <v>136</v>
+      </c>
+      <c r="N116">
+        <v>67</v>
+      </c>
+      <c r="O116">
+        <v>984</v>
+      </c>
+      <c r="P116">
+        <v>5</v>
+      </c>
+      <c r="U116">
+        <v>2</v>
+      </c>
+      <c r="W116">
+        <v>131.69999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23">
+      <c r="A117">
+        <v>23</v>
+      </c>
+      <c r="B117" t="s">
+        <v>39</v>
+      </c>
+      <c r="D117" t="s">
+        <v>73</v>
+      </c>
+      <c r="E117" t="s">
+        <v>140</v>
+      </c>
+      <c r="F117">
+        <v>2009</v>
+      </c>
+      <c r="G117">
+        <v>9</v>
+      </c>
+      <c r="H117">
+        <v>7</v>
+      </c>
+      <c r="I117">
+        <v>15</v>
+      </c>
+      <c r="J117">
+        <v>3</v>
+      </c>
+      <c r="K117">
+        <v>12</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>127</v>
+      </c>
+      <c r="N117">
+        <v>84</v>
+      </c>
+      <c r="O117">
+        <v>1024</v>
+      </c>
+      <c r="P117">
+        <v>4</v>
+      </c>
+      <c r="U117">
+        <v>2</v>
+      </c>
+      <c r="W117">
+        <v>129.6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23">
+      <c r="A118">
+        <v>24</v>
+      </c>
+      <c r="B118" t="s">
+        <v>139</v>
+      </c>
+      <c r="D118" t="s">
+        <v>73</v>
+      </c>
+      <c r="E118" t="s">
+        <v>138</v>
+      </c>
+      <c r="F118">
+        <v>2009</v>
+      </c>
+      <c r="G118">
+        <v>44</v>
+      </c>
+      <c r="H118">
+        <v>38</v>
+      </c>
+      <c r="I118">
+        <v>15</v>
+      </c>
+      <c r="J118">
+        <v>15</v>
+      </c>
+      <c r="K118">
+        <v>135</v>
+      </c>
+      <c r="M118">
+        <v>91</v>
+      </c>
+      <c r="N118">
+        <v>60</v>
+      </c>
+      <c r="O118">
+        <v>790</v>
+      </c>
+      <c r="P118">
+        <v>6</v>
+      </c>
+      <c r="W118">
+        <v>128.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23">
+      <c r="A119">
+        <v>25</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s">
+        <v>73</v>
+      </c>
+      <c r="E119" t="s">
+        <v>111</v>
+      </c>
+      <c r="F119">
+        <v>2009</v>
+      </c>
+      <c r="G119">
+        <v>99999</v>
+      </c>
+      <c r="H119">
+        <v>99999</v>
+      </c>
+      <c r="I119">
+        <v>15</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>111</v>
+      </c>
+      <c r="N119">
+        <v>63</v>
+      </c>
+      <c r="O119">
+        <v>869</v>
+      </c>
+      <c r="P119">
+        <v>7</v>
+      </c>
+      <c r="U119">
+        <v>1</v>
+      </c>
+      <c r="W119">
+        <v>126.9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23">
+      <c r="A120">
+        <v>26</v>
+      </c>
+      <c r="B120" t="s">
+        <v>146</v>
+      </c>
+      <c r="D120" t="s">
+        <v>73</v>
+      </c>
+      <c r="E120" t="s">
+        <v>109</v>
+      </c>
+      <c r="F120">
+        <v>2009</v>
+      </c>
+      <c r="G120">
+        <v>10</v>
+      </c>
+      <c r="H120">
+        <v>14</v>
+      </c>
+      <c r="I120">
+        <v>16</v>
+      </c>
+      <c r="J120">
+        <v>6</v>
+      </c>
+      <c r="K120">
+        <v>54</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>109</v>
+      </c>
+      <c r="N120">
+        <v>55</v>
+      </c>
+      <c r="O120">
+        <v>829</v>
+      </c>
+      <c r="P120">
+        <v>5</v>
+      </c>
+      <c r="W120">
+        <v>124.3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23">
+      <c r="A121">
+        <v>27</v>
+      </c>
+      <c r="B121" t="s">
+        <v>137</v>
+      </c>
+      <c r="D121" t="s">
+        <v>73</v>
+      </c>
+      <c r="E121" t="s">
+        <v>96</v>
+      </c>
+      <c r="F121">
+        <v>2009</v>
+      </c>
+      <c r="G121">
+        <v>60</v>
+      </c>
+      <c r="H121">
+        <v>60</v>
+      </c>
+      <c r="I121">
+        <v>14</v>
+      </c>
+      <c r="J121">
+        <v>2</v>
+      </c>
+      <c r="K121">
+        <v>8</v>
+      </c>
+      <c r="M121">
+        <v>74</v>
+      </c>
+      <c r="N121">
+        <v>47</v>
+      </c>
+      <c r="O121">
+        <v>790</v>
+      </c>
+      <c r="P121">
+        <v>6</v>
+      </c>
+      <c r="W121">
+        <v>115.8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23">
+      <c r="A122">
+        <v>28</v>
+      </c>
+      <c r="B122" t="s">
+        <v>45</v>
+      </c>
+      <c r="D122" t="s">
+        <v>73</v>
+      </c>
+      <c r="E122" t="s">
+        <v>46</v>
+      </c>
+      <c r="F122">
+        <v>2009</v>
+      </c>
+      <c r="G122">
+        <v>99999</v>
+      </c>
+      <c r="H122">
+        <v>99999</v>
+      </c>
+      <c r="I122">
+        <v>16</v>
+      </c>
+      <c r="J122">
+        <v>5</v>
+      </c>
+      <c r="K122">
+        <v>48</v>
+      </c>
+      <c r="M122">
+        <v>72</v>
+      </c>
+      <c r="N122">
+        <v>39</v>
+      </c>
+      <c r="O122">
+        <v>756</v>
+      </c>
+      <c r="P122">
+        <v>6</v>
+      </c>
+      <c r="U122">
+        <v>1</v>
+      </c>
+      <c r="W122">
+        <v>114.4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23">
+      <c r="A123">
+        <v>29</v>
+      </c>
+      <c r="B123" t="s">
+        <v>147</v>
+      </c>
+      <c r="D123" t="s">
+        <v>73</v>
+      </c>
+      <c r="E123" t="s">
+        <v>96</v>
+      </c>
+      <c r="F123">
+        <v>2009</v>
+      </c>
+      <c r="G123">
+        <v>99999</v>
+      </c>
+      <c r="H123">
+        <v>66</v>
+      </c>
+      <c r="I123">
+        <v>14</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>99</v>
+      </c>
+      <c r="N123">
+        <v>57</v>
+      </c>
+      <c r="O123">
+        <v>822</v>
+      </c>
+      <c r="P123">
+        <v>5</v>
+      </c>
+      <c r="U123">
+        <v>1</v>
+      </c>
+      <c r="W123">
+        <v>110.2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23">
+      <c r="A124">
+        <v>30</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" t="s">
+        <v>73</v>
+      </c>
+      <c r="E124" t="s">
+        <v>100</v>
+      </c>
+      <c r="F124">
+        <v>2009</v>
+      </c>
+      <c r="G124">
+        <v>99999</v>
+      </c>
+      <c r="H124">
+        <v>99999</v>
+      </c>
+      <c r="I124">
+        <v>16</v>
+      </c>
+      <c r="J124">
+        <v>2</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>90</v>
+      </c>
+      <c r="N124">
+        <v>60</v>
+      </c>
+      <c r="O124">
+        <v>676</v>
+      </c>
+      <c r="P124">
+        <v>7</v>
+      </c>
+      <c r="W124">
+        <v>109.7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23">
+      <c r="A125" t="s">
+        <v>22</v>
+      </c>
+      <c r="B125" t="s">
+        <v>115</v>
+      </c>
+      <c r="C125" t="s">
+        <v>114</v>
+      </c>
+      <c r="D125" t="s">
+        <v>116</v>
+      </c>
+      <c r="E125" t="s">
+        <v>117</v>
+      </c>
+      <c r="F125" t="s">
+        <v>118</v>
+      </c>
+      <c r="G125" t="s">
+        <v>54</v>
+      </c>
+      <c r="H125" t="s">
+        <v>55</v>
+      </c>
+      <c r="I125" t="s">
+        <v>57</v>
+      </c>
+      <c r="J125" t="s">
+        <v>58</v>
+      </c>
+      <c r="K125" t="s">
+        <v>59</v>
+      </c>
+      <c r="L125" t="s">
+        <v>60</v>
+      </c>
+      <c r="M125" t="s">
+        <v>61</v>
+      </c>
+      <c r="N125" t="s">
+        <v>62</v>
+      </c>
+      <c r="O125" t="s">
+        <v>63</v>
+      </c>
+      <c r="P125" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>65</v>
+      </c>
+      <c r="R125" t="s">
+        <v>66</v>
+      </c>
+      <c r="S125" t="s">
+        <v>67</v>
+      </c>
+      <c r="T125" t="s">
+        <v>68</v>
+      </c>
+      <c r="U125" t="s">
+        <v>69</v>
+      </c>
+      <c r="V125" t="s">
+        <v>70</v>
+      </c>
+      <c r="W125" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126" t="s">
+        <v>141</v>
+      </c>
+      <c r="D126" t="s">
+        <v>73</v>
+      </c>
+      <c r="E126" t="s">
+        <v>140</v>
+      </c>
+      <c r="F126">
+        <v>2008</v>
+      </c>
+      <c r="G126">
+        <v>6</v>
+      </c>
+      <c r="H126">
+        <v>6</v>
+      </c>
+      <c r="I126">
+        <v>16</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>154</v>
+      </c>
+      <c r="N126">
+        <v>96</v>
+      </c>
+      <c r="O126">
+        <v>1431</v>
+      </c>
+      <c r="P126">
+        <v>12</v>
+      </c>
+      <c r="U126">
+        <v>0</v>
+      </c>
+      <c r="V126">
+        <v>0</v>
+      </c>
+      <c r="W126">
+        <v>215.1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="B127" t="s">
+        <v>86</v>
+      </c>
+      <c r="D127" t="s">
+        <v>73</v>
+      </c>
+      <c r="E127" t="s">
+        <v>87</v>
+      </c>
+      <c r="F127">
+        <v>2008</v>
+      </c>
+      <c r="G127">
+        <v>5</v>
+      </c>
+      <c r="H127">
+        <v>5</v>
+      </c>
+      <c r="I127">
+        <v>16</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>170</v>
+      </c>
+      <c r="N127">
+        <v>115</v>
+      </c>
+      <c r="O127">
+        <v>1575</v>
+      </c>
+      <c r="P127">
+        <v>8</v>
+      </c>
+      <c r="U127">
+        <v>1</v>
+      </c>
+      <c r="V127">
+        <v>0</v>
+      </c>
+      <c r="W127">
+        <v>203.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23">
+      <c r="A128">
+        <v>3</v>
+      </c>
+      <c r="B128" t="s">
+        <v>72</v>
+      </c>
+      <c r="D128" t="s">
+        <v>73</v>
+      </c>
+      <c r="E128" t="s">
+        <v>74</v>
+      </c>
+      <c r="F128">
+        <v>2008</v>
+      </c>
+      <c r="G128">
+        <v>16</v>
+      </c>
+      <c r="H128">
+        <v>19</v>
+      </c>
+      <c r="I128">
+        <v>16</v>
+      </c>
+      <c r="J128">
+        <v>3</v>
+      </c>
+      <c r="K128">
+        <v>-1</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>151</v>
+      </c>
+      <c r="N128">
+        <v>78</v>
+      </c>
+      <c r="O128">
+        <v>1331</v>
+      </c>
+      <c r="P128">
+        <v>12</v>
+      </c>
+      <c r="U128">
+        <v>2</v>
+      </c>
+      <c r="V128">
+        <v>0</v>
+      </c>
+      <c r="W128">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23">
+      <c r="A129">
+        <v>4</v>
+      </c>
+      <c r="B129" t="s">
+        <v>132</v>
+      </c>
+      <c r="D129" t="s">
+        <v>73</v>
+      </c>
+      <c r="E129" t="s">
+        <v>144</v>
+      </c>
+      <c r="F129">
+        <v>2008</v>
+      </c>
+      <c r="G129">
+        <v>19</v>
+      </c>
+      <c r="H129">
+        <v>17</v>
+      </c>
+      <c r="I129">
+        <v>16</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>140</v>
+      </c>
+      <c r="N129">
+        <v>80</v>
+      </c>
+      <c r="O129">
+        <v>1292</v>
+      </c>
+      <c r="P129">
+        <v>9</v>
+      </c>
+      <c r="U129">
+        <v>0</v>
+      </c>
+      <c r="V129">
+        <v>0</v>
+      </c>
+      <c r="W129">
+        <v>183.2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23">
+      <c r="A130">
+        <v>5</v>
+      </c>
+      <c r="B130" t="s">
+        <v>105</v>
+      </c>
+      <c r="D130" t="s">
+        <v>73</v>
+      </c>
+      <c r="E130" t="s">
+        <v>106</v>
+      </c>
+      <c r="F130">
+        <v>2008</v>
+      </c>
+      <c r="G130">
+        <v>12</v>
+      </c>
+      <c r="H130">
+        <v>10</v>
+      </c>
+      <c r="I130">
+        <v>14</v>
+      </c>
+      <c r="J130">
+        <v>5</v>
+      </c>
+      <c r="K130">
+        <v>40</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>129</v>
+      </c>
+      <c r="N130">
+        <v>78</v>
+      </c>
+      <c r="O130">
+        <v>1421</v>
+      </c>
+      <c r="P130">
+        <v>6</v>
+      </c>
+      <c r="U130">
+        <v>1</v>
+      </c>
+      <c r="V130">
+        <v>0</v>
+      </c>
+      <c r="W130">
+        <v>180.1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23">
+      <c r="A131">
+        <v>6</v>
+      </c>
+      <c r="B131" t="s">
+        <v>90</v>
+      </c>
+      <c r="D131" t="s">
+        <v>73</v>
+      </c>
+      <c r="E131" t="s">
+        <v>89</v>
+      </c>
+      <c r="F131">
+        <v>2008</v>
+      </c>
+      <c r="G131">
+        <v>18</v>
+      </c>
+      <c r="H131">
+        <v>20</v>
+      </c>
+      <c r="I131">
+        <v>16</v>
+      </c>
+      <c r="J131">
+        <v>2</v>
+      </c>
+      <c r="K131">
+        <v>4</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>148</v>
+      </c>
+      <c r="N131">
+        <v>88</v>
+      </c>
+      <c r="O131">
+        <v>1382</v>
+      </c>
+      <c r="P131">
+        <v>7</v>
+      </c>
+      <c r="U131">
+        <v>1</v>
+      </c>
+      <c r="V131">
+        <v>0</v>
+      </c>
+      <c r="W131">
+        <v>178.6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23">
+      <c r="A132">
+        <v>7</v>
+      </c>
+      <c r="B132" t="s">
+        <v>39</v>
+      </c>
+      <c r="D132" t="s">
+        <v>73</v>
+      </c>
+      <c r="E132" t="s">
+        <v>140</v>
+      </c>
+      <c r="F132">
+        <v>2008</v>
+      </c>
+      <c r="G132">
+        <v>14</v>
+      </c>
+      <c r="H132">
+        <v>12</v>
+      </c>
+      <c r="I132">
+        <v>12</v>
+      </c>
+      <c r="J132">
+        <v>9</v>
+      </c>
+      <c r="K132">
+        <v>67</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>126</v>
+      </c>
+      <c r="N132">
+        <v>89</v>
+      </c>
+      <c r="O132">
+        <v>1038</v>
+      </c>
+      <c r="P132">
+        <v>11</v>
+      </c>
+      <c r="U132">
+        <v>3</v>
+      </c>
+      <c r="V132">
+        <v>0</v>
+      </c>
+      <c r="W132">
+        <v>170.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23">
+      <c r="A133">
+        <v>8</v>
+      </c>
+      <c r="B133" t="s">
+        <v>23</v>
+      </c>
+      <c r="D133" t="s">
+        <v>73</v>
+      </c>
+      <c r="E133" t="s">
+        <v>145</v>
+      </c>
+      <c r="F133">
+        <v>2008</v>
+      </c>
+      <c r="G133">
+        <v>99999</v>
+      </c>
+      <c r="H133">
+        <v>99999</v>
+      </c>
+      <c r="I133">
+        <v>16</v>
+      </c>
+      <c r="J133">
+        <v>2</v>
+      </c>
+      <c r="K133">
+        <v>22</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>137</v>
+      </c>
+      <c r="N133">
+        <v>83</v>
+      </c>
+      <c r="O133">
+        <v>1248</v>
+      </c>
+      <c r="P133">
+        <v>7</v>
+      </c>
+      <c r="U133">
+        <v>1</v>
+      </c>
+      <c r="V133">
+        <v>0</v>
+      </c>
+      <c r="W133">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23">
+      <c r="A134">
+        <v>9</v>
+      </c>
+      <c r="B134" t="s">
+        <v>146</v>
+      </c>
+      <c r="D134" t="s">
+        <v>73</v>
+      </c>
+      <c r="E134" t="s">
+        <v>78</v>
+      </c>
+      <c r="F134">
+        <v>2008</v>
+      </c>
+      <c r="G134">
+        <v>2</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
+      </c>
+      <c r="I134">
+        <v>16</v>
+      </c>
+      <c r="J134">
+        <v>7</v>
+      </c>
+      <c r="K134">
+        <v>33</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>140</v>
+      </c>
+      <c r="N134">
+        <v>69</v>
+      </c>
+      <c r="O134">
+        <v>1052</v>
+      </c>
+      <c r="P134">
+        <v>10</v>
+      </c>
+      <c r="U134">
+        <v>1</v>
+      </c>
+      <c r="V134">
+        <v>0</v>
+      </c>
+      <c r="W134">
+        <v>166.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23">
+      <c r="A135">
+        <v>10</v>
+      </c>
+      <c r="B135" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135" t="s">
+        <v>73</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>2008</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>16</v>
+      </c>
+      <c r="J135">
+        <v>2</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>125</v>
+      </c>
+      <c r="N135">
+        <v>69</v>
+      </c>
+      <c r="O135">
+        <v>1008</v>
+      </c>
+      <c r="P135">
+        <v>11</v>
+      </c>
+      <c r="U135">
+        <v>2</v>
+      </c>
+      <c r="V135">
+        <v>0</v>
+      </c>
+      <c r="W135">
+        <v>162.80000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23">
+      <c r="A136">
+        <v>11</v>
+      </c>
+      <c r="B136" t="s">
+        <v>83</v>
+      </c>
+      <c r="D136" t="s">
+        <v>73</v>
+      </c>
+      <c r="E136" t="s">
+        <v>5</v>
+      </c>
+      <c r="F136">
+        <v>2008</v>
+      </c>
+      <c r="G136">
+        <v>44</v>
+      </c>
+      <c r="H136">
+        <v>36</v>
+      </c>
+      <c r="I136">
+        <v>16</v>
+      </c>
+      <c r="J136">
+        <v>4</v>
+      </c>
+      <c r="K136">
+        <v>69</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>101</v>
+      </c>
+      <c r="N136">
+        <v>59</v>
+      </c>
+      <c r="O136">
+        <v>1098</v>
+      </c>
+      <c r="P136">
+        <v>7</v>
+      </c>
+      <c r="U136">
+        <v>1</v>
+      </c>
+      <c r="V136">
+        <v>0</v>
+      </c>
+      <c r="W136">
+        <v>156.69999999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23">
+      <c r="A137">
+        <v>12</v>
+      </c>
+      <c r="B137" t="s">
+        <v>75</v>
+      </c>
+      <c r="D137" t="s">
+        <v>73</v>
+      </c>
+      <c r="E137" t="s">
+        <v>82</v>
+      </c>
+      <c r="F137">
+        <v>2008</v>
+      </c>
+      <c r="G137">
+        <v>15</v>
+      </c>
+      <c r="H137">
+        <v>13</v>
+      </c>
+      <c r="I137">
+        <v>15</v>
+      </c>
+      <c r="J137">
+        <v>2</v>
+      </c>
+      <c r="K137">
+        <v>-4</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>181</v>
+      </c>
+      <c r="N137">
+        <v>104</v>
+      </c>
+      <c r="O137">
+        <v>1265</v>
+      </c>
+      <c r="P137">
+        <v>6</v>
+      </c>
+      <c r="U137">
+        <v>3</v>
+      </c>
+      <c r="V137">
+        <v>0</v>
+      </c>
+      <c r="W137">
+        <v>156.1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23">
+      <c r="A138">
+        <v>13</v>
+      </c>
+      <c r="B138" t="s">
+        <v>107</v>
+      </c>
+      <c r="D138" t="s">
+        <v>73</v>
+      </c>
+      <c r="E138" t="s">
+        <v>148</v>
+      </c>
+      <c r="F138">
+        <v>2008</v>
+      </c>
+      <c r="G138">
+        <v>99999</v>
+      </c>
+      <c r="H138">
+        <v>99999</v>
+      </c>
+      <c r="I138">
+        <v>16</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>120</v>
+      </c>
+      <c r="N138">
+        <v>79</v>
+      </c>
+      <c r="O138">
+        <v>928</v>
+      </c>
+      <c r="P138">
+        <v>10</v>
+      </c>
+      <c r="U138">
+        <v>0</v>
+      </c>
+      <c r="V138">
+        <v>1</v>
+      </c>
+      <c r="W138">
+        <v>150.80000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23">
+      <c r="A139">
+        <v>14</v>
+      </c>
+      <c r="B139" t="s">
+        <v>99</v>
+      </c>
+      <c r="D139" t="s">
+        <v>73</v>
+      </c>
+      <c r="E139" t="s">
+        <v>100</v>
+      </c>
+      <c r="F139">
+        <v>2008</v>
+      </c>
+      <c r="G139">
+        <v>3</v>
+      </c>
+      <c r="H139">
+        <v>3</v>
+      </c>
+      <c r="I139">
+        <v>16</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>130</v>
+      </c>
+      <c r="N139">
+        <v>82</v>
+      </c>
+      <c r="O139">
+        <v>1145</v>
+      </c>
+      <c r="P139">
+        <v>6</v>
+      </c>
+      <c r="U139">
+        <v>0</v>
+      </c>
+      <c r="V139">
+        <v>0</v>
+      </c>
+      <c r="W139">
+        <v>150.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23">
+      <c r="A140">
+        <v>15</v>
+      </c>
+      <c r="B140" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" t="s">
+        <v>73</v>
+      </c>
+      <c r="E140" t="s">
+        <v>46</v>
+      </c>
+      <c r="F140">
+        <v>2008</v>
+      </c>
+      <c r="G140">
+        <v>25</v>
+      </c>
+      <c r="H140">
+        <v>22</v>
+      </c>
+      <c r="I140">
+        <v>16</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>4</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>125</v>
+      </c>
+      <c r="N140">
+        <v>81</v>
+      </c>
+      <c r="O140">
+        <v>1043</v>
+      </c>
+      <c r="P140">
+        <v>7</v>
+      </c>
+      <c r="U140">
+        <v>0</v>
+      </c>
+      <c r="V140">
+        <v>0</v>
+      </c>
+      <c r="W140">
+        <v>146.69999999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23">
+      <c r="A141">
+        <v>16</v>
+      </c>
+      <c r="B141" t="s">
+        <v>131</v>
+      </c>
+      <c r="D141" t="s">
+        <v>73</v>
+      </c>
+      <c r="E141" t="s">
+        <v>143</v>
+      </c>
+      <c r="F141">
+        <v>2008</v>
+      </c>
+      <c r="G141">
+        <v>22</v>
+      </c>
+      <c r="H141">
+        <v>23</v>
+      </c>
+      <c r="I141">
+        <v>16</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>157</v>
+      </c>
+      <c r="N141">
+        <v>86</v>
+      </c>
+      <c r="O141">
+        <v>1022</v>
+      </c>
+      <c r="P141">
+        <v>7</v>
+      </c>
+      <c r="U141">
+        <v>0</v>
+      </c>
+      <c r="V141">
+        <v>0</v>
+      </c>
+      <c r="W141">
+        <v>144.19999999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23">
+      <c r="A142">
+        <v>17</v>
+      </c>
+      <c r="B142" t="s">
+        <v>149</v>
+      </c>
+      <c r="D142" t="s">
+        <v>73</v>
+      </c>
+      <c r="E142" t="s">
+        <v>124</v>
+      </c>
+      <c r="F142">
+        <v>2008</v>
+      </c>
+      <c r="G142">
+        <v>27</v>
+      </c>
+      <c r="H142">
+        <v>26</v>
+      </c>
+      <c r="I142">
+        <v>16</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>27</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>138</v>
+      </c>
+      <c r="N142">
+        <v>79</v>
+      </c>
+      <c r="O142">
+        <v>1044</v>
+      </c>
+      <c r="P142">
+        <v>6</v>
+      </c>
+      <c r="U142">
+        <v>1</v>
+      </c>
+      <c r="V142">
+        <v>0</v>
+      </c>
+      <c r="W142">
+        <v>141.1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23">
+      <c r="A143">
+        <v>18</v>
+      </c>
+      <c r="B143" t="s">
+        <v>21</v>
+      </c>
+      <c r="D143" t="s">
+        <v>73</v>
+      </c>
+      <c r="E143" t="s">
+        <v>138</v>
+      </c>
+      <c r="F143">
+        <v>2008</v>
+      </c>
+      <c r="G143">
+        <v>33</v>
+      </c>
+      <c r="H143">
+        <v>33</v>
+      </c>
+      <c r="I143">
+        <v>16</v>
+      </c>
+      <c r="J143">
+        <v>4</v>
+      </c>
+      <c r="K143">
+        <v>26</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>95</v>
+      </c>
+      <c r="N143">
+        <v>48</v>
+      </c>
+      <c r="O143">
+        <v>964</v>
+      </c>
+      <c r="P143">
+        <v>7</v>
+      </c>
+      <c r="U143">
+        <v>0</v>
+      </c>
+      <c r="V143">
+        <v>0</v>
+      </c>
+      <c r="W143">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23">
+      <c r="A144">
+        <v>19</v>
+      </c>
+      <c r="B144" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144" t="s">
+        <v>73</v>
+      </c>
+      <c r="E144" t="s">
+        <v>87</v>
+      </c>
+      <c r="F144">
+        <v>2008</v>
+      </c>
+      <c r="G144">
+        <v>66</v>
+      </c>
+      <c r="H144">
+        <v>39</v>
+      </c>
+      <c r="I144">
+        <v>16</v>
+      </c>
+      <c r="J144">
+        <v>3</v>
+      </c>
+      <c r="K144">
+        <v>23</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>95</v>
+      </c>
+      <c r="N144">
+        <v>60</v>
+      </c>
+      <c r="O144">
+        <v>899</v>
+      </c>
+      <c r="P144">
+        <v>8</v>
+      </c>
+      <c r="U144">
+        <v>0</v>
+      </c>
+      <c r="V144">
+        <v>0</v>
+      </c>
+      <c r="W144">
+        <v>140.19999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23">
+      <c r="A145">
+        <v>20</v>
+      </c>
+      <c r="B145" t="s">
+        <v>25</v>
+      </c>
+      <c r="D145" t="s">
+        <v>73</v>
+      </c>
+      <c r="E145" t="s">
+        <v>82</v>
+      </c>
+      <c r="F145">
+        <v>2008</v>
+      </c>
+      <c r="G145">
+        <v>58</v>
+      </c>
+      <c r="H145">
+        <v>56</v>
+      </c>
+      <c r="I145">
+        <v>15</v>
+      </c>
+      <c r="J145">
+        <v>11</v>
+      </c>
+      <c r="K145">
+        <v>109</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>129</v>
+      </c>
+      <c r="N145">
+        <v>91</v>
+      </c>
+      <c r="O145">
+        <v>980</v>
+      </c>
+      <c r="P145">
+        <v>5</v>
+      </c>
+      <c r="U145">
+        <v>1</v>
+      </c>
+      <c r="V145">
+        <v>0</v>
+      </c>
+      <c r="W145">
+        <v>136.9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23">
+      <c r="A146">
+        <v>21</v>
+      </c>
+      <c r="B146" t="s">
+        <v>91</v>
+      </c>
+      <c r="D146" t="s">
+        <v>73</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>2008</v>
+      </c>
+      <c r="G146">
+        <v>20</v>
+      </c>
+      <c r="H146">
+        <v>13</v>
+      </c>
+      <c r="I146">
+        <v>16</v>
+      </c>
+      <c r="J146">
+        <v>3</v>
+      </c>
+      <c r="K146">
+        <v>26</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>149</v>
+      </c>
+      <c r="N146">
+        <v>111</v>
+      </c>
+      <c r="O146">
+        <v>1165</v>
+      </c>
+      <c r="P146">
+        <v>3</v>
+      </c>
+      <c r="U146">
+        <v>1</v>
+      </c>
+      <c r="V146">
+        <v>0</v>
+      </c>
+      <c r="W146">
+        <v>135.1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23">
+      <c r="A147">
+        <v>22</v>
+      </c>
+      <c r="B147" t="s">
+        <v>40</v>
+      </c>
+      <c r="D147" t="s">
+        <v>73</v>
+      </c>
+      <c r="E147" t="s">
+        <v>113</v>
+      </c>
+      <c r="F147">
+        <v>2008</v>
+      </c>
+      <c r="G147">
+        <v>41</v>
+      </c>
+      <c r="H147">
+        <v>34</v>
+      </c>
+      <c r="I147">
+        <v>16</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>3</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>121</v>
+      </c>
+      <c r="N147">
+        <v>80</v>
+      </c>
+      <c r="O147">
+        <v>1037</v>
+      </c>
+      <c r="P147">
+        <v>5</v>
+      </c>
+      <c r="U147">
+        <v>1</v>
+      </c>
+      <c r="V147">
+        <v>0</v>
+      </c>
+      <c r="W147">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23">
+      <c r="A148">
+        <v>23</v>
+      </c>
+      <c r="B148" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" t="s">
+        <v>73</v>
+      </c>
+      <c r="E148" t="s">
+        <v>144</v>
+      </c>
+      <c r="F148">
+        <v>2008</v>
+      </c>
+      <c r="G148">
+        <v>26</v>
+      </c>
+      <c r="H148">
+        <v>28</v>
+      </c>
+      <c r="I148">
+        <v>16</v>
+      </c>
+      <c r="J148">
+        <v>2</v>
+      </c>
+      <c r="K148">
+        <v>4</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>115</v>
+      </c>
+      <c r="N148">
+        <v>74</v>
+      </c>
+      <c r="O148">
+        <v>1012</v>
+      </c>
+      <c r="P148">
+        <v>5</v>
+      </c>
+      <c r="U148">
+        <v>0</v>
+      </c>
+      <c r="V148">
+        <v>0</v>
+      </c>
+      <c r="W148">
+        <v>131.6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23">
+      <c r="A149">
+        <v>24</v>
+      </c>
+      <c r="B149" t="s">
+        <v>26</v>
+      </c>
+      <c r="D149" t="s">
+        <v>73</v>
+      </c>
+      <c r="E149" t="s">
+        <v>151</v>
+      </c>
+      <c r="F149">
+        <v>2008</v>
+      </c>
+      <c r="G149">
+        <v>29</v>
+      </c>
+      <c r="H149">
+        <v>26</v>
+      </c>
+      <c r="I149">
+        <v>16</v>
+      </c>
+      <c r="J149">
+        <v>2</v>
+      </c>
+      <c r="K149">
+        <v>9</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>116</v>
+      </c>
+      <c r="N149">
+        <v>70</v>
+      </c>
+      <c r="O149">
+        <v>850</v>
+      </c>
+      <c r="P149">
+        <v>7</v>
+      </c>
+      <c r="U149">
+        <v>0</v>
+      </c>
+      <c r="V149">
+        <v>0</v>
+      </c>
+      <c r="W149">
+        <v>127.9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23">
+      <c r="A150">
+        <v>25</v>
+      </c>
+      <c r="B150" t="s">
+        <v>27</v>
+      </c>
+      <c r="D150" t="s">
+        <v>73</v>
+      </c>
+      <c r="E150" t="s">
+        <v>28</v>
+      </c>
+      <c r="F150">
+        <v>2008</v>
+      </c>
+      <c r="G150">
+        <v>40</v>
+      </c>
+      <c r="H150">
+        <v>46</v>
+      </c>
+      <c r="I150">
+        <v>16</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>-3</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>108</v>
+      </c>
+      <c r="N150">
+        <v>61</v>
+      </c>
+      <c r="O150">
+        <v>835</v>
+      </c>
+      <c r="P150">
+        <v>7</v>
+      </c>
+      <c r="U150">
+        <v>0</v>
+      </c>
+      <c r="V150">
+        <v>0</v>
+      </c>
+      <c r="W150">
+        <v>125.2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23">
+      <c r="A151">
+        <v>26</v>
+      </c>
+      <c r="B151" t="s">
+        <v>29</v>
+      </c>
+      <c r="D151" t="s">
+        <v>73</v>
+      </c>
+      <c r="E151" t="s">
+        <v>106</v>
+      </c>
+      <c r="F151">
+        <v>2008</v>
+      </c>
+      <c r="G151">
+        <v>60</v>
+      </c>
+      <c r="H151">
+        <v>64</v>
+      </c>
+      <c r="I151">
+        <v>16</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>108</v>
+      </c>
+      <c r="N151">
+        <v>65</v>
+      </c>
+      <c r="O151">
+        <v>923</v>
+      </c>
+      <c r="P151">
+        <v>5</v>
+      </c>
+      <c r="U151">
+        <v>1</v>
+      </c>
+      <c r="V151">
+        <v>0</v>
+      </c>
+      <c r="W151">
+        <v>120.3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23">
+      <c r="A152">
+        <v>27</v>
+      </c>
+      <c r="B152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
+        <v>73</v>
+      </c>
+      <c r="E152" t="s">
+        <v>109</v>
+      </c>
+      <c r="F152">
+        <v>2008</v>
+      </c>
+      <c r="G152">
+        <v>21</v>
+      </c>
+      <c r="H152">
+        <v>25</v>
+      </c>
+      <c r="I152">
+        <v>16</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>22</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>102</v>
+      </c>
+      <c r="N152">
+        <v>63</v>
+      </c>
+      <c r="O152">
+        <v>1017</v>
+      </c>
+      <c r="P152">
+        <v>3</v>
+      </c>
+      <c r="U152">
+        <v>1</v>
+      </c>
+      <c r="V152">
+        <v>0</v>
+      </c>
+      <c r="W152">
+        <v>119.9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23">
+      <c r="A153">
+        <v>28</v>
+      </c>
+      <c r="B153" t="s">
+        <v>18</v>
+      </c>
+      <c r="D153" t="s">
+        <v>73</v>
+      </c>
+      <c r="E153" t="s">
+        <v>140</v>
+      </c>
+      <c r="F153">
+        <v>2008</v>
+      </c>
+      <c r="G153">
+        <v>99999</v>
+      </c>
+      <c r="H153">
+        <v>81</v>
+      </c>
+      <c r="I153">
+        <v>16</v>
+      </c>
+      <c r="J153">
+        <v>2</v>
+      </c>
+      <c r="K153">
+        <v>8</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>113</v>
+      </c>
+      <c r="N153">
+        <v>77</v>
+      </c>
+      <c r="O153">
+        <v>1006</v>
+      </c>
+      <c r="P153">
+        <v>3</v>
+      </c>
+      <c r="U153">
+        <v>0</v>
+      </c>
+      <c r="V153">
+        <v>0</v>
+      </c>
+      <c r="W153">
+        <v>119.4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23">
+      <c r="A154">
+        <v>29</v>
+      </c>
+      <c r="B154" t="s">
+        <v>123</v>
+      </c>
+      <c r="D154" t="s">
+        <v>73</v>
+      </c>
+      <c r="E154" t="s">
+        <v>49</v>
+      </c>
+      <c r="F154">
+        <v>2008</v>
+      </c>
+      <c r="G154">
+        <v>65</v>
+      </c>
+      <c r="H154">
+        <v>43</v>
+      </c>
+      <c r="I154">
+        <v>16</v>
+      </c>
+      <c r="J154">
+        <v>17</v>
+      </c>
+      <c r="K154">
+        <v>96</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>121</v>
+      </c>
+      <c r="N154">
+        <v>62</v>
+      </c>
+      <c r="O154">
+        <v>912</v>
+      </c>
+      <c r="P154">
+        <v>2</v>
+      </c>
+      <c r="U154">
+        <v>0</v>
+      </c>
+      <c r="V154">
+        <v>1</v>
+      </c>
+      <c r="W154">
+        <v>116.8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23">
+      <c r="A155">
+        <v>30</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" t="s">
+        <v>73</v>
+      </c>
+      <c r="E155" t="s">
+        <v>80</v>
+      </c>
+      <c r="F155">
+        <v>2008</v>
+      </c>
+      <c r="G155">
+        <v>7</v>
+      </c>
+      <c r="H155">
+        <v>8</v>
+      </c>
+      <c r="I155">
+        <v>15</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>9</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>137</v>
+      </c>
+      <c r="N155">
+        <v>92</v>
+      </c>
+      <c r="O155">
+        <v>904</v>
+      </c>
+      <c r="P155">
+        <v>4</v>
+      </c>
+      <c r="U155">
+        <v>0</v>
+      </c>
+      <c r="V155">
+        <v>0</v>
+      </c>
+      <c r="W155">
+        <v>115.3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23">
+      <c r="A156" t="s">
+        <v>32</v>
+      </c>
+      <c r="B156" t="s">
+        <v>115</v>
+      </c>
+      <c r="C156" t="s">
+        <v>114</v>
+      </c>
+      <c r="D156" t="s">
+        <v>116</v>
+      </c>
+      <c r="E156" t="s">
+        <v>117</v>
+      </c>
+      <c r="F156" t="s">
+        <v>118</v>
+      </c>
+      <c r="G156" t="s">
+        <v>54</v>
+      </c>
+      <c r="H156" t="s">
+        <v>55</v>
+      </c>
+      <c r="I156" t="s">
+        <v>57</v>
+      </c>
+      <c r="J156" t="s">
+        <v>58</v>
+      </c>
+      <c r="K156" t="s">
+        <v>59</v>
+      </c>
+      <c r="L156" t="s">
+        <v>60</v>
+      </c>
+      <c r="M156" t="s">
+        <v>61</v>
+      </c>
+      <c r="N156" t="s">
+        <v>62</v>
+      </c>
+      <c r="O156" t="s">
+        <v>63</v>
+      </c>
+      <c r="P156" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>65</v>
+      </c>
+      <c r="R156" t="s">
+        <v>66</v>
+      </c>
+      <c r="S156" t="s">
+        <v>67</v>
+      </c>
+      <c r="T156" t="s">
+        <v>68</v>
+      </c>
+      <c r="U156" t="s">
+        <v>69</v>
+      </c>
+      <c r="V156" t="s">
+        <v>70</v>
+      </c>
+      <c r="W156" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="B157" t="s">
+        <v>4</v>
+      </c>
+      <c r="D157" t="s">
+        <v>73</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>2007</v>
+      </c>
+      <c r="G157">
+        <v>30</v>
+      </c>
+      <c r="H157">
+        <v>15</v>
+      </c>
+      <c r="I157">
+        <v>16</v>
+      </c>
+      <c r="M157">
+        <v>159</v>
+      </c>
+      <c r="N157">
+        <v>98</v>
+      </c>
+      <c r="O157">
+        <v>1493</v>
+      </c>
+      <c r="P157">
+        <v>23</v>
+      </c>
+      <c r="W157">
+        <v>287.3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23">
+      <c r="A158">
+        <v>2</v>
+      </c>
+      <c r="B158" t="s">
+        <v>146</v>
+      </c>
+      <c r="D158" t="s">
+        <v>73</v>
+      </c>
+      <c r="E158" t="s">
+        <v>78</v>
+      </c>
+      <c r="F158">
+        <v>2007</v>
+      </c>
+      <c r="G158">
+        <v>3</v>
+      </c>
+      <c r="H158">
+        <v>4</v>
+      </c>
+      <c r="I158">
+        <v>15</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <v>5</v>
+      </c>
+      <c r="M158">
+        <v>141</v>
+      </c>
+      <c r="N158">
+        <v>81</v>
+      </c>
+      <c r="O158">
+        <v>1355</v>
+      </c>
+      <c r="P158">
+        <v>15</v>
+      </c>
+      <c r="W158">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23">
+      <c r="A159">
+        <v>3</v>
+      </c>
+      <c r="B159" t="s">
+        <v>150</v>
+      </c>
+      <c r="D159" t="s">
+        <v>73</v>
+      </c>
+      <c r="E159" t="s">
+        <v>19</v>
+      </c>
+      <c r="F159">
+        <v>2007</v>
+      </c>
+      <c r="G159">
+        <v>26</v>
+      </c>
+      <c r="H159">
+        <v>24</v>
+      </c>
+      <c r="I159">
+        <v>16</v>
+      </c>
+      <c r="M159">
+        <v>153</v>
+      </c>
+      <c r="N159">
+        <v>80</v>
+      </c>
+      <c r="O159">
+        <v>1289</v>
+      </c>
+      <c r="P159">
+        <v>16</v>
+      </c>
+      <c r="V159">
+        <v>2</v>
+      </c>
+      <c r="W159">
+        <v>220.9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23">
+      <c r="A160">
+        <v>4</v>
+      </c>
+      <c r="B160" t="s">
+        <v>99</v>
+      </c>
+      <c r="D160" t="s">
+        <v>73</v>
+      </c>
+      <c r="E160" t="s">
+        <v>100</v>
+      </c>
+      <c r="F160">
+        <v>2007</v>
+      </c>
+      <c r="G160">
+        <v>4</v>
+      </c>
+      <c r="H160">
+        <v>5</v>
+      </c>
+      <c r="I160">
+        <v>16</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>4</v>
+      </c>
+      <c r="M160">
+        <v>156</v>
+      </c>
+      <c r="N160">
+        <v>104</v>
+      </c>
+      <c r="O160">
+        <v>1510</v>
+      </c>
+      <c r="P160">
+        <v>10</v>
+      </c>
+      <c r="V160">
+        <v>3</v>
+      </c>
+      <c r="W160">
+        <v>205.4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23">
+      <c r="A161">
+        <v>5</v>
+      </c>
+      <c r="B161" t="s">
+        <v>141</v>
+      </c>
+      <c r="D161" t="s">
+        <v>73</v>
+      </c>
+      <c r="E161" t="s">
+        <v>140</v>
+      </c>
+      <c r="F161">
+        <v>2007</v>
+      </c>
+      <c r="G161">
+        <v>8</v>
+      </c>
+      <c r="H161">
+        <v>7</v>
+      </c>
+      <c r="I161">
+        <v>15</v>
+      </c>
+      <c r="M161">
+        <v>166</v>
+      </c>
+      <c r="N161">
+        <v>100</v>
+      </c>
+      <c r="O161">
+        <v>1409</v>
+      </c>
+      <c r="P161">
+        <v>10</v>
+      </c>
+      <c r="V161">
+        <v>3</v>
+      </c>
+      <c r="W161">
+        <v>194.9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23">
+      <c r="A162">
+        <v>6</v>
+      </c>
+      <c r="B162" t="s">
+        <v>33</v>
+      </c>
+      <c r="D162" t="s">
+        <v>73</v>
+      </c>
+      <c r="E162" t="s">
+        <v>80</v>
+      </c>
+      <c r="F162">
+        <v>2007</v>
+      </c>
+      <c r="G162">
+        <v>5</v>
+      </c>
+      <c r="H162">
+        <v>3</v>
+      </c>
+      <c r="I162">
+        <v>16</v>
+      </c>
+      <c r="J162">
+        <v>6</v>
+      </c>
+      <c r="K162">
+        <v>47</v>
+      </c>
+      <c r="M162">
+        <v>161</v>
+      </c>
+      <c r="N162">
+        <v>93</v>
+      </c>
+      <c r="O162">
+        <v>1440</v>
+      </c>
+      <c r="P162">
+        <v>8</v>
+      </c>
+      <c r="V162">
+        <v>1</v>
+      </c>
+      <c r="W162">
+        <v>194.7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23">
+      <c r="A163">
+        <v>7</v>
+      </c>
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" t="s">
+        <v>73</v>
+      </c>
+      <c r="E163" t="s">
+        <v>80</v>
+      </c>
+      <c r="F163">
+        <v>2007</v>
+      </c>
+      <c r="G163">
+        <v>12</v>
+      </c>
+      <c r="H163">
+        <v>8</v>
+      </c>
+      <c r="I163">
+        <v>16</v>
+      </c>
+      <c r="J163">
+        <v>5</v>
+      </c>
+      <c r="K163">
+        <v>14</v>
+      </c>
+      <c r="M163">
+        <v>169</v>
+      </c>
+      <c r="N163">
+        <v>112</v>
+      </c>
+      <c r="O163">
+        <v>1143</v>
+      </c>
+      <c r="P163">
+        <v>12</v>
+      </c>
+      <c r="V163">
+        <v>1</v>
+      </c>
+      <c r="W163">
+        <v>185.7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23">
+      <c r="A164">
+        <v>8</v>
+      </c>
+      <c r="B164" t="s">
+        <v>93</v>
+      </c>
+      <c r="D164" t="s">
+        <v>73</v>
+      </c>
+      <c r="E164" t="s">
+        <v>148</v>
+      </c>
+      <c r="F164">
+        <v>2007</v>
+      </c>
+      <c r="G164">
+        <v>9</v>
+      </c>
+      <c r="H164">
+        <v>9</v>
+      </c>
+      <c r="I164">
+        <v>16</v>
+      </c>
+      <c r="M164">
+        <v>143</v>
+      </c>
+      <c r="N164">
+        <v>98</v>
+      </c>
+      <c r="O164">
+        <v>1202</v>
+      </c>
+      <c r="P164">
+        <v>11</v>
+      </c>
+      <c r="V164">
+        <v>1</v>
+      </c>
+      <c r="W164">
+        <v>184.2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23">
+      <c r="A165">
+        <v>9</v>
+      </c>
+      <c r="B165" t="s">
+        <v>75</v>
+      </c>
+      <c r="D165" t="s">
+        <v>73</v>
+      </c>
+      <c r="E165" t="s">
+        <v>82</v>
+      </c>
+      <c r="F165">
+        <v>2007</v>
+      </c>
+      <c r="G165">
+        <v>45</v>
+      </c>
+      <c r="H165">
+        <v>43</v>
+      </c>
+      <c r="I165">
+        <v>16</v>
+      </c>
+      <c r="J165">
+        <v>5</v>
+      </c>
+      <c r="K165">
+        <v>57</v>
+      </c>
+      <c r="M165">
+        <v>170</v>
+      </c>
+      <c r="N165">
+        <v>102</v>
+      </c>
+      <c r="O165">
+        <v>1325</v>
+      </c>
+      <c r="P165">
+        <v>7</v>
+      </c>
+      <c r="V165">
+        <v>1</v>
+      </c>
+      <c r="W165">
+        <v>178.2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23">
+      <c r="A166">
+        <v>10</v>
+      </c>
+      <c r="B166" t="s">
+        <v>31</v>
+      </c>
+      <c r="D166" t="s">
+        <v>73</v>
+      </c>
+      <c r="E166" t="s">
+        <v>96</v>
+      </c>
+      <c r="F166">
+        <v>2007</v>
+      </c>
+      <c r="G166">
+        <v>11</v>
+      </c>
+      <c r="H166">
+        <v>17</v>
+      </c>
+      <c r="I166">
+        <v>16</v>
+      </c>
+      <c r="M166">
+        <v>141</v>
+      </c>
+      <c r="N166">
+        <v>70</v>
+      </c>
+      <c r="O166">
+        <v>1025</v>
+      </c>
+      <c r="P166">
+        <v>12</v>
+      </c>
+      <c r="W166">
+        <v>174.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23">
+      <c r="A167">
+        <v>11</v>
+      </c>
+      <c r="B167" t="s">
+        <v>91</v>
+      </c>
+      <c r="D167" t="s">
+        <v>73</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>2007</v>
+      </c>
+      <c r="G167">
+        <v>47</v>
+      </c>
+      <c r="H167">
+        <v>52</v>
+      </c>
+      <c r="I167">
+        <v>16</v>
+      </c>
+      <c r="J167">
+        <v>4</v>
+      </c>
+      <c r="K167">
+        <v>34</v>
+      </c>
+      <c r="M167">
+        <v>145</v>
+      </c>
+      <c r="N167">
+        <v>112</v>
+      </c>
+      <c r="O167">
+        <v>1175</v>
+      </c>
+      <c r="P167">
+        <v>8</v>
+      </c>
+      <c r="W167">
+        <v>168.9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23">
+      <c r="A168">
+        <v>12</v>
+      </c>
+      <c r="B168" t="s">
+        <v>132</v>
+      </c>
+      <c r="D168" t="s">
+        <v>73</v>
+      </c>
+      <c r="E168" t="s">
+        <v>144</v>
+      </c>
+      <c r="F168">
+        <v>2007</v>
+      </c>
+      <c r="G168">
+        <v>44</v>
+      </c>
+      <c r="H168">
+        <v>38</v>
+      </c>
+      <c r="I168">
+        <v>13</v>
+      </c>
+      <c r="M168">
+        <v>84</v>
+      </c>
+      <c r="N168">
+        <v>53</v>
+      </c>
+      <c r="O168">
+        <v>920</v>
+      </c>
+      <c r="P168">
+        <v>12</v>
+      </c>
+      <c r="W168">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23">
+      <c r="A169">
+        <v>13</v>
+      </c>
+      <c r="B169" t="s">
+        <v>30</v>
+      </c>
+      <c r="D169" t="s">
+        <v>73</v>
+      </c>
+      <c r="E169" t="s">
+        <v>20</v>
+      </c>
+      <c r="F169">
+        <v>2007</v>
+      </c>
+      <c r="G169">
+        <v>7</v>
+      </c>
+      <c r="H169">
+        <v>6</v>
+      </c>
+      <c r="I169">
+        <v>16</v>
+      </c>
+      <c r="M169">
+        <v>149</v>
+      </c>
+      <c r="N169">
+        <v>93</v>
+      </c>
+      <c r="O169">
+        <v>1189</v>
+      </c>
+      <c r="P169">
+        <v>7</v>
+      </c>
+      <c r="V169">
+        <v>1</v>
+      </c>
+      <c r="W169">
+        <v>158.9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23">
+      <c r="A170">
+        <v>14</v>
+      </c>
+      <c r="B170" t="s">
+        <v>90</v>
+      </c>
+      <c r="D170" t="s">
+        <v>73</v>
+      </c>
+      <c r="E170" t="s">
+        <v>89</v>
+      </c>
+      <c r="F170">
+        <v>2007</v>
+      </c>
+      <c r="G170">
+        <v>99999</v>
+      </c>
+      <c r="H170">
+        <v>99999</v>
+      </c>
+      <c r="I170">
+        <v>16</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>137</v>
+      </c>
+      <c r="N170">
+        <v>83</v>
+      </c>
+      <c r="O170">
+        <v>1202</v>
+      </c>
+      <c r="P170">
+        <v>6</v>
+      </c>
+      <c r="V170">
+        <v>2</v>
+      </c>
+      <c r="W170">
+        <v>152.19999999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23">
+      <c r="A171">
+        <v>15</v>
+      </c>
+      <c r="B171" t="s">
+        <v>34</v>
+      </c>
+      <c r="D171" t="s">
+        <v>73</v>
+      </c>
+      <c r="E171" t="s">
+        <v>52</v>
+      </c>
+      <c r="F171">
+        <v>2007</v>
+      </c>
+      <c r="G171">
+        <v>99999</v>
+      </c>
+      <c r="H171">
+        <v>99999</v>
+      </c>
+      <c r="I171">
+        <v>16</v>
+      </c>
+      <c r="M171">
+        <v>134</v>
+      </c>
+      <c r="N171">
+        <v>94</v>
+      </c>
+      <c r="O171">
+        <v>1147</v>
+      </c>
+      <c r="P171">
+        <v>6</v>
+      </c>
+      <c r="V171">
+        <v>1</v>
+      </c>
+      <c r="W171">
+        <v>148.69999999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23">
+      <c r="A172">
+        <v>16</v>
+      </c>
+      <c r="B172" t="s">
+        <v>35</v>
+      </c>
+      <c r="D172" t="s">
+        <v>73</v>
+      </c>
+      <c r="E172" t="s">
+        <v>49</v>
+      </c>
+      <c r="F172">
+        <v>2007</v>
+      </c>
+      <c r="G172">
+        <v>99999</v>
+      </c>
+      <c r="H172">
+        <v>36</v>
+      </c>
+      <c r="I172">
+        <v>16</v>
+      </c>
+      <c r="M172">
+        <v>135</v>
+      </c>
+      <c r="N172">
+        <v>77</v>
+      </c>
+      <c r="O172">
+        <v>1110</v>
+      </c>
+      <c r="P172">
+        <v>6</v>
+      </c>
+      <c r="W172">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23">
+      <c r="A173">
+        <v>17</v>
+      </c>
+      <c r="B173" t="s">
+        <v>105</v>
+      </c>
+      <c r="D173" t="s">
+        <v>73</v>
+      </c>
+      <c r="E173" t="s">
+        <v>106</v>
+      </c>
+      <c r="F173">
+        <v>2007</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173">
+        <v>15</v>
+      </c>
+      <c r="J173">
+        <v>9</v>
+      </c>
+      <c r="K173">
+        <v>66</v>
+      </c>
+      <c r="M173">
+        <v>149</v>
+      </c>
+      <c r="N173">
+        <v>87</v>
+      </c>
+      <c r="O173">
+        <v>1002</v>
+      </c>
+      <c r="P173">
+        <v>7</v>
+      </c>
+      <c r="V173">
+        <v>1</v>
+      </c>
+      <c r="W173">
+        <v>146.80000000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23">
+      <c r="A174">
+        <v>18</v>
+      </c>
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" t="s">
+        <v>73</v>
+      </c>
+      <c r="E174" t="s">
+        <v>46</v>
+      </c>
+      <c r="F174">
+        <v>2007</v>
+      </c>
+      <c r="G174">
+        <v>19</v>
+      </c>
+      <c r="H174">
+        <v>32</v>
+      </c>
+      <c r="I174">
+        <v>13</v>
+      </c>
+      <c r="J174">
+        <v>5</v>
+      </c>
+      <c r="K174">
+        <v>17</v>
+      </c>
+      <c r="M174">
+        <v>85</v>
+      </c>
+      <c r="N174">
+        <v>52</v>
+      </c>
+      <c r="O174">
+        <v>942</v>
+      </c>
+      <c r="P174">
+        <v>8</v>
+      </c>
+      <c r="W174">
+        <v>143.9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23">
+      <c r="A175">
+        <v>19</v>
+      </c>
+      <c r="B175" t="s">
+        <v>39</v>
+      </c>
+      <c r="D175" t="s">
+        <v>73</v>
+      </c>
+      <c r="E175" t="s">
+        <v>140</v>
+      </c>
+      <c r="F175">
+        <v>2007</v>
+      </c>
+      <c r="G175">
+        <v>14</v>
+      </c>
+      <c r="H175">
+        <v>12</v>
+      </c>
+      <c r="I175">
+        <v>12</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>14</v>
+      </c>
+      <c r="M175">
+        <v>99</v>
+      </c>
+      <c r="N175">
+        <v>71</v>
+      </c>
+      <c r="O175">
+        <v>853</v>
+      </c>
+      <c r="P175">
+        <v>9</v>
+      </c>
+      <c r="V175">
+        <v>1</v>
+      </c>
+      <c r="W175">
+        <v>138.69999999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23">
+      <c r="A176">
+        <v>20</v>
+      </c>
+      <c r="B176" t="s">
+        <v>36</v>
+      </c>
+      <c r="D176" t="s">
+        <v>73</v>
+      </c>
+      <c r="E176" t="s">
+        <v>145</v>
+      </c>
+      <c r="F176">
+        <v>2007</v>
+      </c>
+      <c r="G176">
+        <v>18</v>
+      </c>
+      <c r="H176">
+        <v>25</v>
+      </c>
+      <c r="I176">
+        <v>15</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>98</v>
+      </c>
+      <c r="N176">
+        <v>57</v>
+      </c>
+      <c r="O176">
+        <v>1014</v>
+      </c>
+      <c r="P176">
+        <v>6</v>
+      </c>
+      <c r="W176">
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23">
+      <c r="A177">
+        <v>21</v>
+      </c>
+      <c r="B177" t="s">
+        <v>40</v>
+      </c>
+      <c r="D177" t="s">
+        <v>73</v>
+      </c>
+      <c r="E177" t="s">
+        <v>113</v>
+      </c>
+      <c r="F177">
+        <v>2007</v>
+      </c>
+      <c r="G177">
+        <v>50</v>
+      </c>
+      <c r="H177">
+        <v>49</v>
+      </c>
+      <c r="I177">
+        <v>16</v>
+      </c>
+      <c r="M177">
+        <v>164</v>
+      </c>
+      <c r="N177">
+        <v>103</v>
+      </c>
+      <c r="O177">
+        <v>1087</v>
+      </c>
+      <c r="P177">
+        <v>5</v>
+      </c>
+      <c r="V177">
+        <v>1</v>
+      </c>
+      <c r="W177">
+        <v>136.69999999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23">
+      <c r="A178">
+        <v>22</v>
+      </c>
+      <c r="B178" t="s">
+        <v>86</v>
+      </c>
+      <c r="D178" t="s">
+        <v>73</v>
+      </c>
+      <c r="E178" t="s">
+        <v>87</v>
+      </c>
+      <c r="F178">
+        <v>2007</v>
+      </c>
+      <c r="G178">
+        <v>15</v>
+      </c>
+      <c r="H178">
+        <v>14</v>
+      </c>
+      <c r="I178">
+        <v>9</v>
+      </c>
+      <c r="M178">
+        <v>86</v>
+      </c>
+      <c r="N178">
+        <v>60</v>
+      </c>
+      <c r="O178">
+        <v>851</v>
+      </c>
+      <c r="P178">
+        <v>8</v>
+      </c>
+      <c r="V178">
+        <v>1</v>
+      </c>
+      <c r="W178">
+        <v>131.1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23">
+      <c r="A179">
+        <v>23</v>
+      </c>
+      <c r="B179" t="s">
+        <v>131</v>
+      </c>
+      <c r="D179" t="s">
+        <v>73</v>
+      </c>
+      <c r="E179" t="s">
+        <v>143</v>
+      </c>
+      <c r="F179">
+        <v>2007</v>
+      </c>
+      <c r="G179">
+        <v>99999</v>
+      </c>
+      <c r="H179">
+        <v>54</v>
+      </c>
+      <c r="I179">
+        <v>16</v>
+      </c>
+      <c r="M179">
+        <v>117</v>
+      </c>
+      <c r="N179">
+        <v>70</v>
+      </c>
+      <c r="O179">
+        <v>995</v>
+      </c>
+      <c r="P179">
+        <v>5</v>
+      </c>
+      <c r="W179">
+        <v>129.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23">
+      <c r="A180">
+        <v>24</v>
+      </c>
+      <c r="B180" t="s">
+        <v>14</v>
+      </c>
+      <c r="D180" t="s">
+        <v>73</v>
+      </c>
+      <c r="E180" t="s">
+        <v>151</v>
+      </c>
+      <c r="F180">
+        <v>2007</v>
+      </c>
+      <c r="G180">
+        <v>24</v>
+      </c>
+      <c r="H180">
+        <v>27</v>
+      </c>
+      <c r="I180">
+        <v>15</v>
+      </c>
+      <c r="J180">
+        <v>5</v>
+      </c>
+      <c r="K180">
+        <v>38</v>
+      </c>
+      <c r="M180">
+        <v>127</v>
+      </c>
+      <c r="N180">
+        <v>82</v>
+      </c>
+      <c r="O180">
+        <v>1130</v>
+      </c>
+      <c r="P180">
+        <v>2</v>
+      </c>
+      <c r="V180">
+        <v>1</v>
+      </c>
+      <c r="W180">
+        <v>126.8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23">
+      <c r="A181">
+        <v>25</v>
+      </c>
+      <c r="B181" t="s">
+        <v>37</v>
+      </c>
+      <c r="D181" t="s">
+        <v>73</v>
+      </c>
+      <c r="E181" t="s">
+        <v>74</v>
+      </c>
+      <c r="F181">
+        <v>2007</v>
+      </c>
+      <c r="G181">
+        <v>99999</v>
+      </c>
+      <c r="H181">
+        <v>99999</v>
+      </c>
+      <c r="I181">
+        <v>16</v>
+      </c>
+      <c r="J181">
+        <v>4</v>
+      </c>
+      <c r="K181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>127</v>
+      </c>
+      <c r="N181">
+        <v>79</v>
+      </c>
+      <c r="O181">
+        <v>943</v>
+      </c>
+      <c r="P181">
+        <v>6</v>
+      </c>
+      <c r="V181">
+        <v>2</v>
+      </c>
+      <c r="W181">
+        <v>126.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23">
+      <c r="A182">
+        <v>26</v>
+      </c>
+      <c r="B182" t="s">
+        <v>21</v>
+      </c>
+      <c r="D182" t="s">
+        <v>73</v>
+      </c>
+      <c r="E182" t="s">
+        <v>76</v>
+      </c>
+      <c r="F182">
+        <v>2007</v>
+      </c>
+      <c r="G182">
+        <v>37</v>
+      </c>
+      <c r="H182">
+        <v>30</v>
+      </c>
+      <c r="I182">
+        <v>16</v>
+      </c>
+      <c r="M182">
+        <v>128</v>
+      </c>
+      <c r="N182">
+        <v>71</v>
+      </c>
+      <c r="O182">
+        <v>951</v>
+      </c>
+      <c r="P182">
+        <v>5</v>
+      </c>
+      <c r="V182">
+        <v>1</v>
+      </c>
+      <c r="W182">
+        <v>123.1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23">
+      <c r="A183">
+        <v>27</v>
+      </c>
+      <c r="B183" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183" t="s">
+        <v>73</v>
+      </c>
+      <c r="E183" t="s">
+        <v>5</v>
+      </c>
+      <c r="F183">
+        <v>2007</v>
+      </c>
+      <c r="G183">
+        <v>34</v>
+      </c>
+      <c r="H183">
+        <v>31</v>
+      </c>
+      <c r="I183">
+        <v>16</v>
+      </c>
+      <c r="J183">
+        <v>3</v>
+      </c>
+      <c r="K183">
+        <v>12</v>
+      </c>
+      <c r="M183">
+        <v>129</v>
+      </c>
+      <c r="N183">
+        <v>66</v>
+      </c>
+      <c r="O183">
+        <v>970</v>
+      </c>
+      <c r="P183">
+        <v>4</v>
+      </c>
+      <c r="W183">
+        <v>122.2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23">
+      <c r="A184">
+        <v>28</v>
+      </c>
+      <c r="B184" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" t="s">
+        <v>73</v>
+      </c>
+      <c r="E184" t="s">
+        <v>52</v>
+      </c>
+      <c r="F184">
+        <v>2007</v>
+      </c>
+      <c r="G184">
+        <v>99999</v>
+      </c>
+      <c r="H184">
+        <v>99999</v>
+      </c>
+      <c r="I184">
+        <v>16</v>
+      </c>
+      <c r="J184">
+        <v>2</v>
+      </c>
+      <c r="K184">
+        <v>4</v>
+      </c>
+      <c r="M184">
+        <v>95</v>
+      </c>
+      <c r="N184">
+        <v>50</v>
+      </c>
+      <c r="O184">
+        <v>694</v>
+      </c>
+      <c r="P184">
+        <v>9</v>
+      </c>
+      <c r="V184">
+        <v>1</v>
+      </c>
+      <c r="W184">
+        <v>121.8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23">
+      <c r="A185">
+        <v>29</v>
+      </c>
+      <c r="B185" t="s">
+        <v>38</v>
+      </c>
+      <c r="D185" t="s">
+        <v>73</v>
+      </c>
+      <c r="E185" t="s">
+        <v>111</v>
+      </c>
+      <c r="F185">
+        <v>2007</v>
+      </c>
+      <c r="G185">
+        <v>99999</v>
+      </c>
+      <c r="H185">
+        <v>99999</v>
+      </c>
+      <c r="I185">
+        <v>15</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>8</v>
+      </c>
+      <c r="M185">
+        <v>60</v>
+      </c>
+      <c r="N185">
+        <v>38</v>
+      </c>
+      <c r="O185">
+        <v>629</v>
+      </c>
+      <c r="P185">
+        <v>10</v>
+      </c>
+      <c r="V185">
+        <v>2</v>
+      </c>
+      <c r="W185">
+        <v>119.7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23">
+      <c r="A186">
+        <v>30</v>
+      </c>
+      <c r="B186" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" t="s">
+        <v>73</v>
+      </c>
+      <c r="E186" t="s">
+        <v>144</v>
+      </c>
+      <c r="F186">
+        <v>2007</v>
+      </c>
+      <c r="G186">
+        <v>25</v>
+      </c>
+      <c r="H186">
+        <v>16</v>
+      </c>
+      <c r="I186">
+        <v>15</v>
+      </c>
+      <c r="J186">
+        <v>2</v>
+      </c>
+      <c r="K186">
+        <v>4</v>
+      </c>
+      <c r="M186">
+        <v>122</v>
+      </c>
+      <c r="N186">
+        <v>82</v>
+      </c>
+      <c r="O186">
+        <v>1048</v>
+      </c>
+      <c r="P186">
+        <v>2</v>
+      </c>
+      <c r="W186">
+        <v>117.2</v>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/data_formatted/formatted_wr.xlsx
+++ b/data_formatted/formatted_wr.xlsx
@@ -21,6 +21,157 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="152">
   <si>
+    <t>Smith, Steve</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>Moore, Lance</t>
+  </si>
+  <si>
+    <t>Johnson, Stevie</t>
+  </si>
+  <si>
+    <t>BUF</t>
+  </si>
+  <si>
+    <t>Shorts, Cecil</t>
+  </si>
+  <si>
+    <t>JAC</t>
+  </si>
+  <si>
+    <t>Smith, Torrey</t>
+  </si>
+  <si>
+    <t>BAL</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDC</t>
+  </si>
+  <si>
+    <t>Floyd, Malcom</t>
+  </si>
+  <si>
+    <t>OAK</t>
+  </si>
+  <si>
+    <t>Heyward-Bey, Darrius</t>
+  </si>
+  <si>
+    <t>Jackson, DeSean</t>
+  </si>
+  <si>
+    <t>WAS</t>
+  </si>
+  <si>
+    <t>Gaffney, Jabar</t>
+  </si>
+  <si>
+    <t>Lloyd, Brandon</t>
+  </si>
+  <si>
+    <t>Brown, Antonio</t>
+  </si>
+  <si>
+    <t>Garcon, Pierre</t>
+  </si>
+  <si>
+    <t>Johnson, Steve</t>
+  </si>
+  <si>
+    <t>KCC</t>
+  </si>
+  <si>
+    <t>Bowe, Dwayne</t>
+  </si>
+  <si>
+    <t>Jennings, Greg</t>
+  </si>
+  <si>
+    <t>TEN</t>
+  </si>
+  <si>
+    <t>Washington, Nate</t>
+  </si>
+  <si>
+    <t>Robinson, Laurent</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>Nicks, Hakeem</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>Harvin, Percy</t>
+  </si>
+  <si>
+    <t>ARI</t>
+  </si>
+  <si>
+    <t>Fitzgerald, Larry</t>
+  </si>
+  <si>
+    <t>End of 2010 Season</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KC</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>Owens, Terrell</t>
+  </si>
+  <si>
+    <t>Manningham, Mario</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Moss, Santana</t>
+  </si>
+  <si>
+    <t>Edwards, Braylon</t>
+  </si>
+  <si>
+    <t>NYJ</t>
+  </si>
+  <si>
+    <t>Johnson, Chad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Britt, Kenny</t>
   </si>
   <si>
@@ -40,9 +191,6 @@
     <t>SD</t>
   </si>
   <si>
-    <t>Ochocinco, Chad</t>
-  </si>
-  <si>
     <t>Holmes, Santonio</t>
   </si>
   <si>
@@ -356,165 +504,12 @@
   </si>
   <si>
     <t>Williams, Mike</t>
-  </si>
-  <si>
-    <t>Smith, Steve</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>Moore, Lance</t>
-  </si>
-  <si>
-    <t>Johnson, Stevie</t>
-  </si>
-  <si>
-    <t>BUF</t>
-  </si>
-  <si>
-    <t>Shorts, Cecil</t>
-  </si>
-  <si>
-    <t>JAC</t>
-  </si>
-  <si>
-    <t>Smith, Torrey</t>
-  </si>
-  <si>
-    <t>BAL</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Team</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDC</t>
-  </si>
-  <si>
-    <t>Floyd, Malcom</t>
-  </si>
-  <si>
-    <t>OAK</t>
-  </si>
-  <si>
-    <t>Heyward-Bey, Darrius</t>
-  </si>
-  <si>
-    <t>Jackson, DeSean</t>
-  </si>
-  <si>
-    <t>WAS</t>
-  </si>
-  <si>
-    <t>Gaffney, Jabar</t>
-  </si>
-  <si>
-    <t>Lloyd, Brandon</t>
-  </si>
-  <si>
-    <t>Brown, Antonio</t>
-  </si>
-  <si>
-    <t>Garcon, Pierre</t>
-  </si>
-  <si>
-    <t>Johnson, Steve</t>
-  </si>
-  <si>
-    <t>KCC</t>
-  </si>
-  <si>
-    <t>Bowe, Dwayne</t>
-  </si>
-  <si>
-    <t>Jennings, Greg</t>
-  </si>
-  <si>
-    <t>TEN</t>
-  </si>
-  <si>
-    <t>Washington, Nate</t>
-  </si>
-  <si>
-    <t>Robinson, Laurent</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>Nicks, Hakeem</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>Harvin, Percy</t>
-  </si>
-  <si>
-    <t>ARI</t>
-  </si>
-  <si>
-    <t>Fitzgerald, Larry</t>
-  </si>
-  <si>
-    <t>End of 2010 Season</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KC</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>TB</t>
-  </si>
-  <si>
-    <t>Owens, Terrell</t>
-  </si>
-  <si>
-    <t>Manningham, Mario</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Moss, Santana</t>
-  </si>
-  <si>
-    <t>Edwards, Braylon</t>
-  </si>
-  <si>
-    <t>NYJ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -545,8 +540,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -878,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:W186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -892,73 +890,73 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R1" t="s">
+        <v>113</v>
+      </c>
+      <c r="S1" t="s">
+        <v>114</v>
+      </c>
+      <c r="T1" t="s">
         <v>115</v>
       </c>
-      <c r="C1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>116</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V1" t="s">
         <v>117</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W1" t="s">
         <v>118</v>
-      </c>
-      <c r="G1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S1" t="s">
-        <v>67</v>
-      </c>
-      <c r="T1" t="s">
-        <v>68</v>
-      </c>
-      <c r="U1" t="s">
-        <v>69</v>
-      </c>
-      <c r="V1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -966,16 +964,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="C2">
         <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="F2">
         <v>2012</v>
@@ -1013,16 +1011,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="C3">
         <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F3">
         <v>2012</v>
@@ -1063,16 +1061,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C4">
         <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F4">
         <v>2012</v>
@@ -1116,16 +1114,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C5">
         <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="F5">
         <v>2012</v>
@@ -1169,16 +1167,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="C6">
         <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="F6">
         <v>2012</v>
@@ -1216,16 +1214,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="C7">
         <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="F7">
         <v>2012</v>
@@ -1260,16 +1258,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="C8">
         <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="F8">
         <v>2012</v>
@@ -1304,16 +1302,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="C9">
         <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="F9">
         <v>2012</v>
@@ -1348,16 +1346,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="C10">
         <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="F10">
         <v>2012</v>
@@ -1398,16 +1396,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="C11">
         <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="F11">
         <v>2012</v>
@@ -1442,16 +1440,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="C12">
         <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="F12">
         <v>2012</v>
@@ -1495,16 +1493,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="C13">
         <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="F13">
         <v>2012</v>
@@ -1542,16 +1540,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="C14">
         <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="F14">
         <v>2012</v>
@@ -1586,16 +1584,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="C15">
         <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="F15">
         <v>2012</v>
@@ -1636,16 +1634,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="C16">
         <v>125</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="F16">
         <v>2012</v>
@@ -1689,16 +1687,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="C17">
         <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="F17">
         <v>2012</v>
@@ -1733,16 +1731,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="C18">
         <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="F18">
         <v>2012</v>
@@ -1786,16 +1784,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="C19">
         <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="F19">
         <v>2012</v>
@@ -1830,16 +1828,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>2012</v>
@@ -1883,16 +1881,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="F21">
         <v>2012</v>
@@ -1927,16 +1925,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="F22">
         <v>2012</v>
@@ -1974,16 +1972,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>132</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="F23">
         <v>2012</v>
@@ -2027,16 +2025,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>133</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="F24">
         <v>2012</v>
@@ -2077,16 +2075,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="C25">
         <v>134</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="F25">
         <v>2012</v>
@@ -2127,16 +2125,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="C26">
         <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F26">
         <v>2012</v>
@@ -2180,16 +2178,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="C27">
         <v>136</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F27">
         <v>2012</v>
@@ -2227,16 +2225,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="C28">
         <v>137</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="F28">
         <v>2012</v>
@@ -2274,16 +2272,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C29">
         <v>138</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="F29">
         <v>2012</v>
@@ -2324,16 +2322,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C30">
         <v>139</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="F30">
         <v>2012</v>
@@ -2374,16 +2372,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C31">
         <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="F31">
         <v>2012</v>
@@ -2415,73 +2413,73 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>101</v>
+      </c>
+      <c r="H32" t="s">
+        <v>102</v>
+      </c>
+      <c r="I32" t="s">
+        <v>104</v>
+      </c>
+      <c r="J32" t="s">
+        <v>105</v>
+      </c>
+      <c r="K32" t="s">
+        <v>106</v>
+      </c>
+      <c r="L32" t="s">
+        <v>107</v>
+      </c>
+      <c r="M32" t="s">
+        <v>108</v>
+      </c>
+      <c r="N32" t="s">
+        <v>109</v>
+      </c>
+      <c r="O32" t="s">
+        <v>110</v>
+      </c>
+      <c r="P32" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>112</v>
+      </c>
+      <c r="R32" t="s">
+        <v>113</v>
+      </c>
+      <c r="S32" t="s">
+        <v>114</v>
+      </c>
+      <c r="T32" t="s">
         <v>115</v>
       </c>
-      <c r="C32" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="U32" t="s">
         <v>116</v>
       </c>
-      <c r="E32" t="s">
+      <c r="V32" t="s">
         <v>117</v>
       </c>
-      <c r="F32" t="s">
+      <c r="W32" t="s">
         <v>118</v>
-      </c>
-      <c r="G32" t="s">
-        <v>54</v>
-      </c>
-      <c r="H32" t="s">
-        <v>55</v>
-      </c>
-      <c r="I32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J32" t="s">
-        <v>58</v>
-      </c>
-      <c r="K32" t="s">
-        <v>59</v>
-      </c>
-      <c r="L32" t="s">
-        <v>60</v>
-      </c>
-      <c r="M32" t="s">
-        <v>61</v>
-      </c>
-      <c r="N32" t="s">
-        <v>62</v>
-      </c>
-      <c r="O32" t="s">
-        <v>63</v>
-      </c>
-      <c r="P32" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>65</v>
-      </c>
-      <c r="R32" t="s">
-        <v>66</v>
-      </c>
-      <c r="S32" t="s">
-        <v>67</v>
-      </c>
-      <c r="T32" t="s">
-        <v>68</v>
-      </c>
-      <c r="U32" t="s">
-        <v>69</v>
-      </c>
-      <c r="V32" t="s">
-        <v>70</v>
-      </c>
-      <c r="W32" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2489,16 +2487,16 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="C33">
         <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="F33">
         <v>2011</v>
@@ -2542,16 +2540,16 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C34">
         <v>140</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E34" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="F34">
         <v>2011</v>
@@ -2586,16 +2584,16 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="C35">
         <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="F35">
         <v>2011</v>
@@ -2636,16 +2634,16 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="C36">
         <v>123</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E36" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="F36">
         <v>2011</v>
@@ -2689,16 +2687,16 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="C37">
         <v>141</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E37" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="F37">
         <v>2011</v>
@@ -2733,16 +2731,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>129</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>2011</v>
@@ -2786,16 +2784,16 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="C39">
         <v>120</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E39" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="F39">
         <v>2011</v>
@@ -2830,16 +2828,16 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="C40">
         <v>142</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="F40">
         <v>2011</v>
@@ -2886,16 +2884,16 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="C41">
         <v>135</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F41">
         <v>2011</v>
@@ -2939,16 +2937,16 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="C42">
         <v>116</v>
       </c>
       <c r="D42" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E42" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="F42">
         <v>2011</v>
@@ -2989,16 +2987,16 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="C43">
         <v>143</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="F43">
         <v>2011</v>
@@ -3033,16 +3031,16 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="C44">
         <v>122</v>
       </c>
       <c r="D44" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E44" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="F44">
         <v>2011</v>
@@ -3080,16 +3078,16 @@
         <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="C45">
         <v>112</v>
       </c>
       <c r="D45" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="F45">
         <v>2011</v>
@@ -3133,16 +3131,16 @@
         <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C46">
         <v>114</v>
       </c>
       <c r="D46" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E46" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="F46">
         <v>2011</v>
@@ -3183,16 +3181,16 @@
         <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="C47">
         <v>144</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E47" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F47">
         <v>2011</v>
@@ -3227,16 +3225,16 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C48">
         <v>145</v>
       </c>
       <c r="D48" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E48" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="F48">
         <v>2011</v>
@@ -3280,16 +3278,16 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="C49">
         <v>146</v>
       </c>
       <c r="D49" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E49" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="F49">
         <v>2011</v>
@@ -3324,16 +3322,16 @@
         <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="C50">
         <v>119</v>
       </c>
       <c r="D50" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E50" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="F50">
         <v>2011</v>
@@ -3377,16 +3375,16 @@
         <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="C51">
         <v>147</v>
       </c>
       <c r="D51" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E51" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="F51">
         <v>2011</v>
@@ -3427,16 +3425,16 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C52">
         <v>113</v>
       </c>
       <c r="D52" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E52" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F52">
         <v>2011</v>
@@ -3480,16 +3478,16 @@
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="C53">
         <v>131</v>
       </c>
       <c r="D53" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E53" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="F53">
         <v>2011</v>
@@ -3524,16 +3522,16 @@
         <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="C54">
         <v>133</v>
       </c>
       <c r="D54" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E54" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="F54">
         <v>2011</v>
@@ -3574,16 +3572,16 @@
         <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="C55">
         <v>148</v>
       </c>
       <c r="D55" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E55" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="F55">
         <v>2011</v>
@@ -3627,16 +3625,16 @@
         <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="C56">
         <v>149</v>
       </c>
       <c r="D56" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E56" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F56">
         <v>2011</v>
@@ -3677,16 +3675,16 @@
         <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="C57">
         <v>150</v>
       </c>
       <c r="D57" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E57" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="F57">
         <v>2011</v>
@@ -3721,16 +3719,16 @@
         <v>26</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="C58">
         <v>151</v>
       </c>
       <c r="D58" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E58" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="F58">
         <v>2011</v>
@@ -3768,16 +3766,16 @@
         <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="C59">
         <v>152</v>
       </c>
       <c r="D59" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E59" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="F59">
         <v>2011</v>
@@ -3821,16 +3819,16 @@
         <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="C60">
         <v>125</v>
       </c>
       <c r="D60" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E60" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="F60">
         <v>2011</v>
@@ -3865,16 +3863,16 @@
         <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="C61">
         <v>153</v>
       </c>
       <c r="D61" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="F61">
         <v>2011</v>
@@ -3912,16 +3910,16 @@
         <v>30</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="C62">
         <v>154</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="F62">
         <v>2011</v>
@@ -3953,73 +3951,73 @@
     </row>
     <row r="63" spans="1:23">
       <c r="A63" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s">
+        <v>101</v>
+      </c>
+      <c r="H63" t="s">
+        <v>102</v>
+      </c>
+      <c r="I63" t="s">
+        <v>104</v>
+      </c>
+      <c r="J63" t="s">
+        <v>105</v>
+      </c>
+      <c r="K63" t="s">
+        <v>106</v>
+      </c>
+      <c r="L63" t="s">
+        <v>107</v>
+      </c>
+      <c r="M63" t="s">
+        <v>108</v>
+      </c>
+      <c r="N63" t="s">
+        <v>109</v>
+      </c>
+      <c r="O63" t="s">
+        <v>110</v>
+      </c>
+      <c r="P63" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>112</v>
+      </c>
+      <c r="R63" t="s">
+        <v>113</v>
+      </c>
+      <c r="S63" t="s">
+        <v>114</v>
+      </c>
+      <c r="T63" t="s">
         <v>115</v>
       </c>
-      <c r="C63" t="s">
-        <v>114</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="U63" t="s">
         <v>116</v>
       </c>
-      <c r="E63" t="s">
+      <c r="V63" t="s">
         <v>117</v>
       </c>
-      <c r="F63" t="s">
+      <c r="W63" t="s">
         <v>118</v>
-      </c>
-      <c r="G63" t="s">
-        <v>54</v>
-      </c>
-      <c r="H63" t="s">
-        <v>55</v>
-      </c>
-      <c r="I63" t="s">
-        <v>57</v>
-      </c>
-      <c r="J63" t="s">
-        <v>58</v>
-      </c>
-      <c r="K63" t="s">
-        <v>59</v>
-      </c>
-      <c r="L63" t="s">
-        <v>60</v>
-      </c>
-      <c r="M63" t="s">
-        <v>61</v>
-      </c>
-      <c r="N63" t="s">
-        <v>62</v>
-      </c>
-      <c r="O63" t="s">
-        <v>63</v>
-      </c>
-      <c r="P63" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>65</v>
-      </c>
-      <c r="R63" t="s">
-        <v>66</v>
-      </c>
-      <c r="S63" t="s">
-        <v>67</v>
-      </c>
-      <c r="T63" t="s">
-        <v>68</v>
-      </c>
-      <c r="U63" t="s">
-        <v>69</v>
-      </c>
-      <c r="V63" t="s">
-        <v>70</v>
-      </c>
-      <c r="W63" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4027,13 +4025,16 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>126</v>
+        <v>21</v>
+      </c>
+      <c r="C64">
+        <v>150</v>
       </c>
       <c r="D64" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E64" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="F64">
         <v>2010</v>
@@ -4074,13 +4075,16 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>26</v>
+      </c>
+      <c r="C65">
+        <v>147</v>
       </c>
       <c r="D65" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E65" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="F65">
         <v>2010</v>
@@ -4121,13 +4125,16 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>27</v>
+      </c>
+      <c r="C66">
+        <v>146</v>
       </c>
       <c r="D66" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E66" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="F66">
         <v>2010</v>
@@ -4168,13 +4175,16 @@
         <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>137</v>
+      </c>
+      <c r="C67">
+        <v>120</v>
       </c>
       <c r="D67" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E67" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="F67">
         <v>2010</v>
@@ -4218,13 +4228,16 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>92</v>
+      </c>
+      <c r="C68">
+        <v>135</v>
       </c>
       <c r="D68" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E68" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F68">
         <v>2010</v>
@@ -4265,13 +4278,16 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>119</v>
+      </c>
+      <c r="C69">
+        <v>111</v>
       </c>
       <c r="D69" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E69" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="F69">
         <v>2010</v>
@@ -4312,13 +4328,16 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>32</v>
+      </c>
+      <c r="C70">
+        <v>143</v>
       </c>
       <c r="D70" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E70" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="F70">
         <v>2010</v>
@@ -4353,13 +4372,16 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>133</v>
+      </c>
+      <c r="C71" s="1">
+        <v>118</v>
       </c>
       <c r="D71" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E71" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="F71">
         <v>2010</v>
@@ -4400,13 +4422,16 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>99</v>
+        <v>146</v>
+      </c>
+      <c r="C72">
+        <v>125</v>
       </c>
       <c r="D72" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E72" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="F72">
         <v>2010</v>
@@ -4444,13 +4469,16 @@
         <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>131</v>
       </c>
       <c r="D73" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E73" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="F73">
         <v>2010</v>
@@ -4488,13 +4516,16 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>47</v>
+        <v>94</v>
+      </c>
+      <c r="C74">
+        <v>136</v>
       </c>
       <c r="D74" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E74" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F74">
         <v>2010</v>
@@ -4541,13 +4572,16 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>104</v>
+        <v>151</v>
+      </c>
+      <c r="C75">
+        <v>128</v>
       </c>
       <c r="D75" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="F75">
         <v>2010</v>
@@ -4585,13 +4619,16 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>48</v>
+        <v>95</v>
+      </c>
+      <c r="C76">
+        <v>137</v>
       </c>
       <c r="D76" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E76" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="F76">
         <v>2010</v>
@@ -4635,13 +4672,16 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>123</v>
+        <v>18</v>
+      </c>
+      <c r="C77">
+        <v>152</v>
       </c>
       <c r="D77" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E77" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="F77">
         <v>2010</v>
@@ -4688,13 +4728,16 @@
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>146</v>
+        <v>41</v>
+      </c>
+      <c r="C78">
+        <v>155</v>
       </c>
       <c r="D78" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E78" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="F78">
         <v>2010</v>
@@ -4729,13 +4772,16 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79">
         <v>141</v>
       </c>
       <c r="D79" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E79" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="F79">
         <v>2010</v>
@@ -4770,13 +4816,16 @@
         <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>147</v>
+        <v>42</v>
+      </c>
+      <c r="C80">
+        <v>156</v>
       </c>
       <c r="D80" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E80" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="F80">
         <v>2010</v>
@@ -4820,13 +4869,16 @@
         <v>18</v>
       </c>
       <c r="B81" t="s">
-        <v>93</v>
+        <v>140</v>
+      </c>
+      <c r="C81">
+        <v>122</v>
       </c>
       <c r="D81" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E81" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="F81">
         <v>2010</v>
@@ -4867,13 +4919,16 @@
         <v>19</v>
       </c>
       <c r="B82" t="s">
-        <v>149</v>
+        <v>44</v>
+      </c>
+      <c r="C82">
+        <v>157</v>
       </c>
       <c r="D82" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E82" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="F82">
         <v>2010</v>
@@ -4917,13 +4972,16 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>139</v>
+        <v>34</v>
+      </c>
+      <c r="C83">
+        <v>142</v>
       </c>
       <c r="D83" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E83" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="F83">
         <v>2010</v>
@@ -4967,13 +5025,16 @@
         <v>21</v>
       </c>
       <c r="B84" t="s">
-        <v>150</v>
+        <v>45</v>
+      </c>
+      <c r="C84">
+        <v>158</v>
       </c>
       <c r="D84" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E84" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="F84">
         <v>2010</v>
@@ -5017,13 +5078,16 @@
         <v>22</v>
       </c>
       <c r="B85" t="s">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="C85">
+        <v>159</v>
       </c>
       <c r="D85" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E85" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="F85">
         <v>2010</v>
@@ -5061,13 +5125,16 @@
         <v>23</v>
       </c>
       <c r="B86" t="s">
-        <v>91</v>
+        <v>138</v>
+      </c>
+      <c r="C86">
+        <v>121</v>
       </c>
       <c r="D86" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E86" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F86">
         <v>2010</v>
@@ -5102,13 +5169,16 @@
         <v>24</v>
       </c>
       <c r="B87" t="s">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="C87">
+        <v>160</v>
       </c>
       <c r="D87" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E87" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F87">
         <v>2010</v>
@@ -5152,13 +5222,16 @@
         <v>25</v>
       </c>
       <c r="B88" t="s">
-        <v>39</v>
+        <v>86</v>
+      </c>
+      <c r="C88">
+        <v>161</v>
       </c>
       <c r="D88" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E88" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="F88">
         <v>2010</v>
@@ -5202,13 +5275,16 @@
         <v>26</v>
       </c>
       <c r="B89" t="s">
-        <v>107</v>
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>130</v>
       </c>
       <c r="D89" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E89" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="F89">
         <v>2010</v>
@@ -5246,13 +5322,16 @@
         <v>27</v>
       </c>
       <c r="B90" t="s">
-        <v>40</v>
+        <v>87</v>
+      </c>
+      <c r="C90">
+        <v>162</v>
       </c>
       <c r="D90" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E90" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="F90">
         <v>2010</v>
@@ -5287,13 +5366,16 @@
         <v>28</v>
       </c>
       <c r="B91" t="s">
-        <v>75</v>
+        <v>122</v>
+      </c>
+      <c r="C91">
+        <v>112</v>
       </c>
       <c r="D91" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E91" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="F91">
         <v>2010</v>
@@ -5337,13 +5419,16 @@
         <v>29</v>
       </c>
       <c r="B92" t="s">
-        <v>41</v>
+        <v>88</v>
+      </c>
+      <c r="C92">
+        <v>163</v>
       </c>
       <c r="D92" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E92" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="F92">
         <v>2010</v>
@@ -5384,13 +5469,16 @@
         <v>30</v>
       </c>
       <c r="B93" t="s">
-        <v>42</v>
+        <v>89</v>
+      </c>
+      <c r="C93">
+        <v>164</v>
       </c>
       <c r="D93" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E93" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="F93">
         <v>2010</v>
@@ -5425,73 +5513,73 @@
     </row>
     <row r="94" spans="1:23">
       <c r="A94" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s">
+        <v>101</v>
+      </c>
+      <c r="H94" t="s">
+        <v>102</v>
+      </c>
+      <c r="I94" t="s">
+        <v>104</v>
+      </c>
+      <c r="J94" t="s">
+        <v>105</v>
+      </c>
+      <c r="K94" t="s">
+        <v>106</v>
+      </c>
+      <c r="L94" t="s">
+        <v>107</v>
+      </c>
+      <c r="M94" t="s">
+        <v>108</v>
+      </c>
+      <c r="N94" t="s">
+        <v>109</v>
+      </c>
+      <c r="O94" t="s">
+        <v>110</v>
+      </c>
+      <c r="P94" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>112</v>
+      </c>
+      <c r="R94" t="s">
+        <v>113</v>
+      </c>
+      <c r="S94" t="s">
+        <v>114</v>
+      </c>
+      <c r="T94" t="s">
         <v>115</v>
       </c>
-      <c r="C94" t="s">
-        <v>114</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="U94" t="s">
         <v>116</v>
       </c>
-      <c r="E94" t="s">
+      <c r="V94" t="s">
         <v>117</v>
       </c>
-      <c r="F94" t="s">
+      <c r="W94" t="s">
         <v>118</v>
-      </c>
-      <c r="G94" t="s">
-        <v>54</v>
-      </c>
-      <c r="H94" t="s">
-        <v>55</v>
-      </c>
-      <c r="I94" t="s">
-        <v>57</v>
-      </c>
-      <c r="J94" t="s">
-        <v>58</v>
-      </c>
-      <c r="K94" t="s">
-        <v>59</v>
-      </c>
-      <c r="L94" t="s">
-        <v>60</v>
-      </c>
-      <c r="M94" t="s">
-        <v>61</v>
-      </c>
-      <c r="N94" t="s">
-        <v>62</v>
-      </c>
-      <c r="O94" t="s">
-        <v>63</v>
-      </c>
-      <c r="P94" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>65</v>
-      </c>
-      <c r="R94" t="s">
-        <v>66</v>
-      </c>
-      <c r="S94" t="s">
-        <v>67</v>
-      </c>
-      <c r="T94" t="s">
-        <v>68</v>
-      </c>
-      <c r="U94" t="s">
-        <v>69</v>
-      </c>
-      <c r="V94" t="s">
-        <v>70</v>
-      </c>
-      <c r="W94" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -5499,13 +5587,16 @@
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>86</v>
+        <v>133</v>
+      </c>
+      <c r="C95">
+        <v>118</v>
       </c>
       <c r="D95" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E95" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="F95">
         <v>2009</v>
@@ -5546,13 +5637,16 @@
         <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>4</v>
+        <v>52</v>
+      </c>
+      <c r="C96">
+        <v>165</v>
       </c>
       <c r="D96" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E96" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F96">
         <v>2009</v>
@@ -5596,13 +5690,16 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>47</v>
+        <v>94</v>
+      </c>
+      <c r="C97">
+        <v>136</v>
       </c>
       <c r="D97" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E97" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F97">
         <v>2009</v>
@@ -5643,13 +5740,16 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>123</v>
+        <v>18</v>
+      </c>
+      <c r="C98">
+        <v>152</v>
       </c>
       <c r="D98" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E98" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="F98">
         <v>2009</v>
@@ -5696,13 +5796,16 @@
         <v>5</v>
       </c>
       <c r="B99" t="s">
+        <v>36</v>
+      </c>
+      <c r="C99">
         <v>141</v>
       </c>
       <c r="D99" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E99" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="F99">
         <v>2009</v>
@@ -5743,13 +5846,16 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>146</v>
+      </c>
+      <c r="C100">
+        <v>125</v>
       </c>
       <c r="D100" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E100" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="F100">
         <v>2009</v>
@@ -5793,13 +5899,16 @@
         <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>90</v>
+        <v>137</v>
+      </c>
+      <c r="C101">
+        <v>120</v>
       </c>
       <c r="D101" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E101" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="F101">
         <v>2009</v>
@@ -5840,13 +5949,16 @@
         <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>51</v>
+        <v>98</v>
+      </c>
+      <c r="C102">
+        <v>139</v>
       </c>
       <c r="D102" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E102" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="F102">
         <v>2009</v>
@@ -5890,13 +6002,16 @@
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>75</v>
+        <v>122</v>
+      </c>
+      <c r="C103">
+        <v>112</v>
       </c>
       <c r="D103" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E103" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="F103">
         <v>2009</v>
@@ -5937,13 +6052,16 @@
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>83</v>
+        <v>130</v>
+      </c>
+      <c r="C104">
+        <v>116</v>
       </c>
       <c r="D104" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E104" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="F104">
         <v>2009</v>
@@ -5984,13 +6102,16 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>166</v>
       </c>
       <c r="D105" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E105" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="F105">
         <v>2009</v>
@@ -6031,13 +6152,16 @@
         <v>12</v>
       </c>
       <c r="B106" t="s">
-        <v>91</v>
+        <v>138</v>
+      </c>
+      <c r="C106">
+        <v>121</v>
       </c>
       <c r="D106" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E106" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F106">
         <v>2009</v>
@@ -6078,13 +6202,16 @@
         <v>13</v>
       </c>
       <c r="B107" t="s">
-        <v>93</v>
+        <v>140</v>
+      </c>
+      <c r="C107">
+        <v>122</v>
       </c>
       <c r="D107" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E107" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="F107">
         <v>2009</v>
@@ -6128,13 +6255,16 @@
         <v>14</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>47</v>
+      </c>
+      <c r="C108">
+        <v>167</v>
       </c>
       <c r="D108" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E108" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="F108">
         <v>2009</v>
@@ -6178,13 +6308,16 @@
         <v>15</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>54</v>
+      </c>
+      <c r="C109">
+        <v>168</v>
       </c>
       <c r="D109" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E109" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F109">
         <v>2009</v>
@@ -6228,13 +6361,16 @@
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>55</v>
+      </c>
+      <c r="C110">
+        <v>169</v>
       </c>
       <c r="D110" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E110" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F110">
         <v>2009</v>
@@ -6278,13 +6414,16 @@
         <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>40</v>
+        <v>87</v>
+      </c>
+      <c r="C111">
+        <v>162</v>
       </c>
       <c r="D111" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E111" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="F111">
         <v>2009</v>
@@ -6325,13 +6464,16 @@
         <v>18</v>
       </c>
       <c r="B112" t="s">
-        <v>105</v>
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>129</v>
       </c>
       <c r="D112" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E112" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="F112">
         <v>2009</v>
@@ -6372,13 +6514,16 @@
         <v>19</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>56</v>
+      </c>
+      <c r="C113">
+        <v>170</v>
       </c>
       <c r="D113" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E113" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="F113">
         <v>2009</v>
@@ -6422,13 +6567,16 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>132</v>
+        <v>27</v>
+      </c>
+      <c r="C114">
+        <v>146</v>
       </c>
       <c r="D114" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E114" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="F114">
         <v>2009</v>
@@ -6469,13 +6617,16 @@
         <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>57</v>
+      </c>
+      <c r="C115">
+        <v>171</v>
       </c>
       <c r="D115" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E115" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="F115">
         <v>2009</v>
@@ -6519,13 +6670,16 @@
         <v>22</v>
       </c>
       <c r="B116" t="s">
-        <v>72</v>
+        <v>119</v>
+      </c>
+      <c r="C116">
+        <v>111</v>
       </c>
       <c r="D116" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E116" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="F116">
         <v>2009</v>
@@ -6569,13 +6723,16 @@
         <v>23</v>
       </c>
       <c r="B117" t="s">
-        <v>39</v>
+        <v>86</v>
+      </c>
+      <c r="C117">
+        <v>161</v>
       </c>
       <c r="D117" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E117" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="F117">
         <v>2009</v>
@@ -6622,13 +6779,16 @@
         <v>24</v>
       </c>
       <c r="B118" t="s">
-        <v>139</v>
+        <v>34</v>
+      </c>
+      <c r="C118">
+        <v>142</v>
       </c>
       <c r="D118" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E118" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="F118">
         <v>2009</v>
@@ -6669,13 +6829,16 @@
         <v>25</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>58</v>
+      </c>
+      <c r="C119">
+        <v>172</v>
       </c>
       <c r="D119" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E119" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="F119">
         <v>2009</v>
@@ -6719,13 +6882,16 @@
         <v>26</v>
       </c>
       <c r="B120" t="s">
-        <v>146</v>
+        <v>41</v>
+      </c>
+      <c r="C120">
+        <v>155</v>
       </c>
       <c r="D120" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E120" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="F120">
         <v>2009</v>
@@ -6769,13 +6935,16 @@
         <v>27</v>
       </c>
       <c r="B121" t="s">
-        <v>137</v>
+        <v>32</v>
+      </c>
+      <c r="C121">
+        <v>143</v>
       </c>
       <c r="D121" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="F121">
         <v>2009</v>
@@ -6816,13 +6985,16 @@
         <v>28</v>
       </c>
       <c r="B122" t="s">
-        <v>45</v>
+        <v>92</v>
+      </c>
+      <c r="C122">
+        <v>135</v>
       </c>
       <c r="D122" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E122" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F122">
         <v>2009</v>
@@ -6866,13 +7038,16 @@
         <v>29</v>
       </c>
       <c r="B123" t="s">
-        <v>147</v>
+        <v>42</v>
+      </c>
+      <c r="C123">
+        <v>156</v>
       </c>
       <c r="D123" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E123" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="F123">
         <v>2009</v>
@@ -6916,13 +7091,13 @@
         <v>30</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D124" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E124" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="F124">
         <v>2009</v>
@@ -6960,73 +7135,73 @@
     </row>
     <row r="125" spans="1:23">
       <c r="A125" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="B125" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>101</v>
+      </c>
+      <c r="H125" t="s">
+        <v>102</v>
+      </c>
+      <c r="I125" t="s">
+        <v>104</v>
+      </c>
+      <c r="J125" t="s">
+        <v>105</v>
+      </c>
+      <c r="K125" t="s">
+        <v>106</v>
+      </c>
+      <c r="L125" t="s">
+        <v>107</v>
+      </c>
+      <c r="M125" t="s">
+        <v>108</v>
+      </c>
+      <c r="N125" t="s">
+        <v>109</v>
+      </c>
+      <c r="O125" t="s">
+        <v>110</v>
+      </c>
+      <c r="P125" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>112</v>
+      </c>
+      <c r="R125" t="s">
+        <v>113</v>
+      </c>
+      <c r="S125" t="s">
+        <v>114</v>
+      </c>
+      <c r="T125" t="s">
         <v>115</v>
       </c>
-      <c r="C125" t="s">
-        <v>114</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="U125" t="s">
         <v>116</v>
       </c>
-      <c r="E125" t="s">
+      <c r="V125" t="s">
         <v>117</v>
       </c>
-      <c r="F125" t="s">
+      <c r="W125" t="s">
         <v>118</v>
-      </c>
-      <c r="G125" t="s">
-        <v>54</v>
-      </c>
-      <c r="H125" t="s">
-        <v>55</v>
-      </c>
-      <c r="I125" t="s">
-        <v>57</v>
-      </c>
-      <c r="J125" t="s">
-        <v>58</v>
-      </c>
-      <c r="K125" t="s">
-        <v>59</v>
-      </c>
-      <c r="L125" t="s">
-        <v>60</v>
-      </c>
-      <c r="M125" t="s">
-        <v>61</v>
-      </c>
-      <c r="N125" t="s">
-        <v>62</v>
-      </c>
-      <c r="O125" t="s">
-        <v>63</v>
-      </c>
-      <c r="P125" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>65</v>
-      </c>
-      <c r="R125" t="s">
-        <v>66</v>
-      </c>
-      <c r="S125" t="s">
-        <v>67</v>
-      </c>
-      <c r="T125" t="s">
-        <v>68</v>
-      </c>
-      <c r="U125" t="s">
-        <v>69</v>
-      </c>
-      <c r="V125" t="s">
-        <v>70</v>
-      </c>
-      <c r="W125" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -7034,13 +7209,16 @@
         <v>1</v>
       </c>
       <c r="B126" t="s">
+        <v>36</v>
+      </c>
+      <c r="C126">
         <v>141</v>
       </c>
       <c r="D126" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E126" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="F126">
         <v>2008</v>
@@ -7090,13 +7268,16 @@
         <v>2</v>
       </c>
       <c r="B127" t="s">
-        <v>86</v>
+        <v>133</v>
+      </c>
+      <c r="C127">
+        <v>118</v>
       </c>
       <c r="D127" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E127" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="F127">
         <v>2008</v>
@@ -7146,13 +7327,16 @@
         <v>3</v>
       </c>
       <c r="B128" t="s">
-        <v>72</v>
+        <v>119</v>
+      </c>
+      <c r="C128">
+        <v>111</v>
       </c>
       <c r="D128" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E128" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="F128">
         <v>2008</v>
@@ -7202,13 +7386,16 @@
         <v>4</v>
       </c>
       <c r="B129" t="s">
-        <v>132</v>
+        <v>27</v>
+      </c>
+      <c r="C129">
+        <v>146</v>
       </c>
       <c r="D129" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E129" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="F129">
         <v>2008</v>
@@ -7258,13 +7445,16 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>105</v>
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>129</v>
       </c>
       <c r="D130" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E130" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="F130">
         <v>2008</v>
@@ -7314,13 +7504,16 @@
         <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>90</v>
+        <v>137</v>
+      </c>
+      <c r="C131">
+        <v>120</v>
       </c>
       <c r="D131" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E131" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="F131">
         <v>2008</v>
@@ -7370,13 +7563,16 @@
         <v>7</v>
       </c>
       <c r="B132" t="s">
-        <v>39</v>
+        <v>86</v>
+      </c>
+      <c r="C132">
+        <v>161</v>
       </c>
       <c r="D132" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E132" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="F132">
         <v>2008</v>
@@ -7426,13 +7622,16 @@
         <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>23</v>
+        <v>70</v>
+      </c>
+      <c r="C133">
+        <v>173</v>
       </c>
       <c r="D133" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E133" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="F133">
         <v>2008</v>
@@ -7482,13 +7681,16 @@
         <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>146</v>
+        <v>41</v>
+      </c>
+      <c r="C134">
+        <v>155</v>
       </c>
       <c r="D134" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E134" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F134">
         <v>2008</v>
@@ -7538,13 +7740,16 @@
         <v>10</v>
       </c>
       <c r="B135" t="s">
-        <v>4</v>
+        <v>52</v>
+      </c>
+      <c r="C135">
+        <v>165</v>
       </c>
       <c r="D135" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E135" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F135">
         <v>2008</v>
@@ -7594,13 +7799,16 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>83</v>
+        <v>130</v>
+      </c>
+      <c r="C136">
+        <v>116</v>
       </c>
       <c r="D136" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E136" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="F136">
         <v>2008</v>
@@ -7650,13 +7858,16 @@
         <v>12</v>
       </c>
       <c r="B137" t="s">
-        <v>75</v>
+        <v>122</v>
+      </c>
+      <c r="C137">
+        <v>112</v>
       </c>
       <c r="D137" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E137" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="F137">
         <v>2008</v>
@@ -7706,13 +7917,16 @@
         <v>13</v>
       </c>
       <c r="B138" t="s">
-        <v>107</v>
+        <v>2</v>
+      </c>
+      <c r="C138">
+        <v>130</v>
       </c>
       <c r="D138" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E138" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="F138">
         <v>2008</v>
@@ -7762,13 +7976,16 @@
         <v>14</v>
       </c>
       <c r="B139" t="s">
-        <v>99</v>
+        <v>146</v>
+      </c>
+      <c r="C139">
+        <v>125</v>
       </c>
       <c r="D139" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E139" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="F139">
         <v>2008</v>
@@ -7818,13 +8035,16 @@
         <v>15</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>55</v>
+      </c>
+      <c r="C140">
+        <v>169</v>
       </c>
       <c r="D140" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E140" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F140">
         <v>2008</v>
@@ -7874,13 +8094,16 @@
         <v>16</v>
       </c>
       <c r="B141" t="s">
-        <v>131</v>
+        <v>26</v>
+      </c>
+      <c r="C141">
+        <v>147</v>
       </c>
       <c r="D141" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E141" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="F141">
         <v>2008</v>
@@ -7930,13 +8153,16 @@
         <v>17</v>
       </c>
       <c r="B142" t="s">
-        <v>149</v>
+        <v>44</v>
+      </c>
+      <c r="C142">
+        <v>157</v>
       </c>
       <c r="D142" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E142" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="F142">
         <v>2008</v>
@@ -7986,13 +8212,16 @@
         <v>18</v>
       </c>
       <c r="B143" t="s">
-        <v>21</v>
+        <v>68</v>
+      </c>
+      <c r="C143">
+        <v>174</v>
       </c>
       <c r="D143" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E143" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="F143">
         <v>2008</v>
@@ -8042,13 +8271,16 @@
         <v>19</v>
       </c>
       <c r="B144" t="s">
-        <v>24</v>
+        <v>71</v>
+      </c>
+      <c r="C144">
+        <v>175</v>
       </c>
       <c r="D144" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E144" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="F144">
         <v>2008</v>
@@ -8098,13 +8330,16 @@
         <v>20</v>
       </c>
       <c r="B145" t="s">
-        <v>25</v>
+        <v>72</v>
+      </c>
+      <c r="C145">
+        <v>176</v>
       </c>
       <c r="D145" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E145" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="F145">
         <v>2008</v>
@@ -8154,13 +8389,16 @@
         <v>21</v>
       </c>
       <c r="B146" t="s">
-        <v>91</v>
+        <v>138</v>
+      </c>
+      <c r="C146">
+        <v>121</v>
       </c>
       <c r="D146" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E146" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F146">
         <v>2008</v>
@@ -8210,13 +8448,16 @@
         <v>22</v>
       </c>
       <c r="B147" t="s">
-        <v>40</v>
+        <v>87</v>
+      </c>
+      <c r="C147">
+        <v>162</v>
       </c>
       <c r="D147" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E147" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="F147">
         <v>2008</v>
@@ -8266,13 +8507,16 @@
         <v>23</v>
       </c>
       <c r="B148" t="s">
-        <v>9</v>
+        <v>56</v>
+      </c>
+      <c r="C148">
+        <v>170</v>
       </c>
       <c r="D148" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E148" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="F148">
         <v>2008</v>
@@ -8322,13 +8566,16 @@
         <v>24</v>
       </c>
       <c r="B149" t="s">
-        <v>26</v>
+        <v>73</v>
+      </c>
+      <c r="C149">
+        <v>177</v>
       </c>
       <c r="D149" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E149" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="F149">
         <v>2008</v>
@@ -8378,13 +8625,16 @@
         <v>25</v>
       </c>
       <c r="B150" t="s">
-        <v>27</v>
+        <v>74</v>
+      </c>
+      <c r="C150">
+        <v>178</v>
       </c>
       <c r="D150" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E150" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="F150">
         <v>2008</v>
@@ -8434,13 +8684,16 @@
         <v>26</v>
       </c>
       <c r="B151" t="s">
-        <v>29</v>
+        <v>76</v>
+      </c>
+      <c r="C151">
+        <v>179</v>
       </c>
       <c r="D151" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E151" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="F151">
         <v>2008</v>
@@ -8490,13 +8743,16 @@
         <v>27</v>
       </c>
       <c r="B152" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="C152">
+        <v>180</v>
       </c>
       <c r="D152" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E152" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="F152">
         <v>2008</v>
@@ -8546,13 +8802,16 @@
         <v>28</v>
       </c>
       <c r="B153" t="s">
-        <v>18</v>
+        <v>65</v>
+      </c>
+      <c r="C153">
+        <v>181</v>
       </c>
       <c r="D153" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E153" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="F153">
         <v>2008</v>
@@ -8602,13 +8861,16 @@
         <v>29</v>
       </c>
       <c r="B154" t="s">
-        <v>123</v>
+        <v>18</v>
+      </c>
+      <c r="C154">
+        <v>152</v>
       </c>
       <c r="D154" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E154" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="F154">
         <v>2008</v>
@@ -8658,13 +8920,16 @@
         <v>30</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>60</v>
+      </c>
+      <c r="C155">
+        <v>182</v>
       </c>
       <c r="D155" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E155" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="F155">
         <v>2008</v>
@@ -8711,73 +8976,73 @@
     </row>
     <row r="156" spans="1:23">
       <c r="A156" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="B156" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156" t="s">
+        <v>12</v>
+      </c>
+      <c r="F156" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156" t="s">
+        <v>101</v>
+      </c>
+      <c r="H156" t="s">
+        <v>102</v>
+      </c>
+      <c r="I156" t="s">
+        <v>104</v>
+      </c>
+      <c r="J156" t="s">
+        <v>105</v>
+      </c>
+      <c r="K156" t="s">
+        <v>106</v>
+      </c>
+      <c r="L156" t="s">
+        <v>107</v>
+      </c>
+      <c r="M156" t="s">
+        <v>108</v>
+      </c>
+      <c r="N156" t="s">
+        <v>109</v>
+      </c>
+      <c r="O156" t="s">
+        <v>110</v>
+      </c>
+      <c r="P156" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>112</v>
+      </c>
+      <c r="R156" t="s">
+        <v>113</v>
+      </c>
+      <c r="S156" t="s">
+        <v>114</v>
+      </c>
+      <c r="T156" t="s">
         <v>115</v>
       </c>
-      <c r="C156" t="s">
-        <v>114</v>
-      </c>
-      <c r="D156" t="s">
+      <c r="U156" t="s">
         <v>116</v>
       </c>
-      <c r="E156" t="s">
+      <c r="V156" t="s">
         <v>117</v>
       </c>
-      <c r="F156" t="s">
+      <c r="W156" t="s">
         <v>118</v>
-      </c>
-      <c r="G156" t="s">
-        <v>54</v>
-      </c>
-      <c r="H156" t="s">
-        <v>55</v>
-      </c>
-      <c r="I156" t="s">
-        <v>57</v>
-      </c>
-      <c r="J156" t="s">
-        <v>58</v>
-      </c>
-      <c r="K156" t="s">
-        <v>59</v>
-      </c>
-      <c r="L156" t="s">
-        <v>60</v>
-      </c>
-      <c r="M156" t="s">
-        <v>61</v>
-      </c>
-      <c r="N156" t="s">
-        <v>62</v>
-      </c>
-      <c r="O156" t="s">
-        <v>63</v>
-      </c>
-      <c r="P156" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q156" t="s">
-        <v>65</v>
-      </c>
-      <c r="R156" t="s">
-        <v>66</v>
-      </c>
-      <c r="S156" t="s">
-        <v>67</v>
-      </c>
-      <c r="T156" t="s">
-        <v>68</v>
-      </c>
-      <c r="U156" t="s">
-        <v>69</v>
-      </c>
-      <c r="V156" t="s">
-        <v>70</v>
-      </c>
-      <c r="W156" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -8785,13 +9050,16 @@
         <v>1</v>
       </c>
       <c r="B157" t="s">
-        <v>4</v>
+        <v>52</v>
+      </c>
+      <c r="C157">
+        <v>165</v>
       </c>
       <c r="D157" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E157" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F157">
         <v>2007</v>
@@ -8826,13 +9094,16 @@
         <v>2</v>
       </c>
       <c r="B158" t="s">
-        <v>146</v>
+        <v>41</v>
+      </c>
+      <c r="C158">
+        <v>155</v>
       </c>
       <c r="D158" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E158" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F158">
         <v>2007</v>
@@ -8873,13 +9144,16 @@
         <v>3</v>
       </c>
       <c r="B159" t="s">
-        <v>150</v>
+        <v>45</v>
+      </c>
+      <c r="C159">
+        <v>158</v>
       </c>
       <c r="D159" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E159" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F159">
         <v>2007</v>
@@ -8917,13 +9191,16 @@
         <v>4</v>
       </c>
       <c r="B160" t="s">
-        <v>99</v>
+        <v>146</v>
+      </c>
+      <c r="C160">
+        <v>125</v>
       </c>
       <c r="D160" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E160" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="F160">
         <v>2007</v>
@@ -8967,13 +9244,16 @@
         <v>5</v>
       </c>
       <c r="B161" t="s">
+        <v>36</v>
+      </c>
+      <c r="C161">
         <v>141</v>
       </c>
       <c r="D161" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E161" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="F161">
         <v>2007</v>
@@ -9011,13 +9291,16 @@
         <v>6</v>
       </c>
       <c r="B162" t="s">
-        <v>33</v>
+        <v>80</v>
+      </c>
+      <c r="C162">
+        <v>167</v>
       </c>
       <c r="D162" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E162" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="F162">
         <v>2007</v>
@@ -9061,13 +9344,16 @@
         <v>7</v>
       </c>
       <c r="B163" t="s">
-        <v>13</v>
+        <v>60</v>
+      </c>
+      <c r="C163">
+        <v>182</v>
       </c>
       <c r="D163" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E163" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="F163">
         <v>2007</v>
@@ -9111,13 +9397,16 @@
         <v>8</v>
       </c>
       <c r="B164" t="s">
-        <v>93</v>
+        <v>140</v>
+      </c>
+      <c r="C164">
+        <v>122</v>
       </c>
       <c r="D164" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E164" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="F164">
         <v>2007</v>
@@ -9155,13 +9444,16 @@
         <v>9</v>
       </c>
       <c r="B165" t="s">
-        <v>75</v>
+        <v>122</v>
+      </c>
+      <c r="C165">
+        <v>112</v>
       </c>
       <c r="D165" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E165" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="F165">
         <v>2007</v>
@@ -9205,13 +9497,16 @@
         <v>10</v>
       </c>
       <c r="B166" t="s">
-        <v>31</v>
+        <v>78</v>
+      </c>
+      <c r="C166">
+        <v>183</v>
       </c>
       <c r="D166" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E166" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="F166">
         <v>2007</v>
@@ -9246,13 +9541,16 @@
         <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>91</v>
+        <v>138</v>
+      </c>
+      <c r="C167">
+        <v>121</v>
       </c>
       <c r="D167" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E167" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F167">
         <v>2007</v>
@@ -9293,13 +9591,16 @@
         <v>12</v>
       </c>
       <c r="B168" t="s">
-        <v>132</v>
+        <v>27</v>
+      </c>
+      <c r="C168">
+        <v>146</v>
       </c>
       <c r="D168" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E168" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="F168">
         <v>2007</v>
@@ -9334,13 +9635,16 @@
         <v>13</v>
       </c>
       <c r="B169" t="s">
-        <v>30</v>
+        <v>77</v>
+      </c>
+      <c r="C169">
+        <v>184</v>
       </c>
       <c r="D169" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E169" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="F169">
         <v>2007</v>
@@ -9378,13 +9682,16 @@
         <v>14</v>
       </c>
       <c r="B170" t="s">
-        <v>90</v>
+        <v>137</v>
+      </c>
+      <c r="C170">
+        <v>120</v>
       </c>
       <c r="D170" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E170" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="F170">
         <v>2007</v>
@@ -9425,13 +9732,16 @@
         <v>15</v>
       </c>
       <c r="B171" t="s">
-        <v>34</v>
+        <v>81</v>
+      </c>
+      <c r="C171">
+        <v>185</v>
       </c>
       <c r="D171" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E171" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="F171">
         <v>2007</v>
@@ -9469,13 +9779,16 @@
         <v>16</v>
       </c>
       <c r="B172" t="s">
-        <v>35</v>
+        <v>82</v>
+      </c>
+      <c r="C172">
+        <v>186</v>
       </c>
       <c r="D172" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E172" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="F172">
         <v>2007</v>
@@ -9510,13 +9823,16 @@
         <v>17</v>
       </c>
       <c r="B173" t="s">
-        <v>105</v>
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>129</v>
       </c>
       <c r="D173" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E173" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="F173">
         <v>2007</v>
@@ -9560,13 +9876,16 @@
         <v>18</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>54</v>
+      </c>
+      <c r="C174">
+        <v>168</v>
       </c>
       <c r="D174" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E174" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F174">
         <v>2007</v>
@@ -9607,13 +9926,16 @@
         <v>19</v>
       </c>
       <c r="B175" t="s">
-        <v>39</v>
+        <v>86</v>
+      </c>
+      <c r="C175">
+        <v>161</v>
       </c>
       <c r="D175" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E175" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="F175">
         <v>2007</v>
@@ -9657,13 +9979,16 @@
         <v>20</v>
       </c>
       <c r="B176" t="s">
-        <v>36</v>
+        <v>83</v>
+      </c>
+      <c r="C176">
+        <v>187</v>
       </c>
       <c r="D176" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E176" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="F176">
         <v>2007</v>
@@ -9704,13 +10029,16 @@
         <v>21</v>
       </c>
       <c r="B177" t="s">
-        <v>40</v>
+        <v>87</v>
+      </c>
+      <c r="C177">
+        <v>162</v>
       </c>
       <c r="D177" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E177" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="F177">
         <v>2007</v>
@@ -9748,13 +10076,16 @@
         <v>22</v>
       </c>
       <c r="B178" t="s">
-        <v>86</v>
+        <v>133</v>
+      </c>
+      <c r="C178">
+        <v>118</v>
       </c>
       <c r="D178" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E178" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="F178">
         <v>2007</v>
@@ -9792,13 +10123,16 @@
         <v>23</v>
       </c>
       <c r="B179" t="s">
-        <v>131</v>
+        <v>26</v>
+      </c>
+      <c r="C179">
+        <v>147</v>
       </c>
       <c r="D179" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E179" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="F179">
         <v>2007</v>
@@ -9833,13 +10167,16 @@
         <v>24</v>
       </c>
       <c r="B180" t="s">
-        <v>14</v>
+        <v>61</v>
+      </c>
+      <c r="C180">
+        <v>188</v>
       </c>
       <c r="D180" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E180" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="F180">
         <v>2007</v>
@@ -9883,13 +10220,16 @@
         <v>25</v>
       </c>
       <c r="B181" t="s">
-        <v>37</v>
+        <v>84</v>
+      </c>
+      <c r="C181">
+        <v>189</v>
       </c>
       <c r="D181" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E181" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="F181">
         <v>2007</v>
@@ -9933,13 +10273,16 @@
         <v>26</v>
       </c>
       <c r="B182" t="s">
-        <v>21</v>
+        <v>68</v>
+      </c>
+      <c r="C182">
+        <v>174</v>
       </c>
       <c r="D182" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E182" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F182">
         <v>2007</v>
@@ -9977,13 +10320,16 @@
         <v>27</v>
       </c>
       <c r="B183" t="s">
-        <v>16</v>
+        <v>63</v>
+      </c>
+      <c r="C183">
+        <v>190</v>
       </c>
       <c r="D183" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E183" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="F183">
         <v>2007</v>
@@ -10024,13 +10370,16 @@
         <v>28</v>
       </c>
       <c r="B184" t="s">
-        <v>17</v>
+        <v>64</v>
+      </c>
+      <c r="C184">
+        <v>191</v>
       </c>
       <c r="D184" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E184" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="F184">
         <v>2007</v>
@@ -10074,13 +10423,16 @@
         <v>29</v>
       </c>
       <c r="B185" t="s">
-        <v>38</v>
+        <v>85</v>
+      </c>
+      <c r="C185">
+        <v>192</v>
       </c>
       <c r="D185" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E185" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="F185">
         <v>2007</v>
@@ -10124,13 +10476,16 @@
         <v>30</v>
       </c>
       <c r="B186" t="s">
-        <v>9</v>
+        <v>56</v>
+      </c>
+      <c r="C186">
+        <v>170</v>
       </c>
       <c r="D186" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E186" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="F186">
         <v>2007</v>
@@ -10167,10 +10522,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
